--- a/data/source/reference/chicago_category_notes_analysis.xlsx
+++ b/data/source/reference/chicago_category_notes_analysis.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jarvis/R/safetytracker_chicago/data/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jarvis/R/safetytracker_chicago/data/source/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF147112-5369-9A41-A53C-82683A93CCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED96298-1EB4-9B46-A89D-F32CFF48F577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40840" yWindow="3040" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{2D38F7AF-362E-284B-8B20-3A7554E5C55D}"/>
+    <workbookView xWindow="41660" yWindow="4300" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{2D38F7AF-362E-284B-8B20-3A7554E5C55D}"/>
   </bookViews>
   <sheets>
     <sheet name="rape cats" sheetId="1" r:id="rId1"/>
     <sheet name="battery" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Original From Chicago OPS" sheetId="4" r:id="rId4"/>
+    <sheet name="location cleanup" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="714">
   <si>
     <t>category</t>
   </si>
@@ -266,13 +268,1927 @@
   </si>
   <si>
     <t>500-Under</t>
+  </si>
+  <si>
+    <t>502T OTHER OFFENSE TAMPER WITH MOTOR VEHICLE</t>
+  </si>
+  <si>
+    <t>502R OTHER OFFENSE VEHICLE TITLE/REG OFFENSE</t>
+  </si>
+  <si>
+    <t>502P OTHER OFFENSE FALSE/STOLEN/ALTERED TRP</t>
+  </si>
+  <si>
+    <t>501H OTHER OFFENSE HAZARDOUS MATERIALS VIOLATION</t>
+  </si>
+  <si>
+    <t>501A OTHER OFFENSE ANIMAL ABUSE/NEGLECT</t>
+  </si>
+  <si>
+    <t>5011 OTHER OFFENSE LICENSE VIOLATION</t>
+  </si>
+  <si>
+    <t>500N OTHER OFFENSE ABUSE/NEGLECT: CARE FACILITY</t>
+  </si>
+  <si>
+    <t>500E OTHER OFFENSE EAVESDROPPING</t>
+  </si>
+  <si>
+    <t>5008 OTHER OFFENSE FIREARM REGISTRATION VIOLATION</t>
+  </si>
+  <si>
+    <t>5007 OTHER OFFENSE OTHER WEAPONS VIOLATION</t>
+  </si>
+  <si>
+    <t>5003 OTHER OFFENSE OTHER ARSON/EXPLOSIVE INCIDENT</t>
+  </si>
+  <si>
+    <t>5002 OTHER OFFENSE OTHER VEHICLE OFFENSE</t>
+  </si>
+  <si>
+    <t>5001 OTHER OFFENSE OTHER CRIME INVOLVING PROPERTY</t>
+  </si>
+  <si>
+    <t>5000 OTHER OFFENSE OTHER CRIME AGAINST PERSON</t>
+  </si>
+  <si>
+    <t>4860 OTHER OFFENSE BOARD PLANE WITH WEAPON</t>
+  </si>
+  <si>
+    <t>4810 OTHER OFFENSE COMPOUNDING A CRIME</t>
+  </si>
+  <si>
+    <t>4800 OTHER OFFENSE MONEY LAUNDERING</t>
+  </si>
+  <si>
+    <t>4750 OTHER OFFENSE DISCLOSE DV VICTIM LOCATION</t>
+  </si>
+  <si>
+    <t>4740 OTHER OFFENSE UNLAWFUL USE OF BODY ARMOR</t>
+  </si>
+  <si>
+    <t>4652 OTHER OFFENSE SEX OFFENDER: PROHIBITED ZONE</t>
+  </si>
+  <si>
+    <t>4651 OTHER OFFENSE SEX OFFENDER: FAIL REG NEW ADD</t>
+  </si>
+  <si>
+    <t>4650 OTHER OFFENSE SEX OFFENDER: FAIL TO REGISTER</t>
+  </si>
+  <si>
+    <t>4625 OTHER OFFENSE PAROLE VIOLATION</t>
+  </si>
+  <si>
+    <t>4510 OTHER OFFENSE PROBATION VIOLATION</t>
+  </si>
+  <si>
+    <t>4420 OTHER OFFENSE CRIMINAL FORTIFICATION</t>
+  </si>
+  <si>
+    <t>4410 OTHER OFFENSE DESTRUCTION OF DRAFT CARD</t>
+  </si>
+  <si>
+    <t>4388 OTHER OFFENSE VIO BAIL BOND: DOM VIOLENCE</t>
+  </si>
+  <si>
+    <t>4387 OTHER OFFENSE VIOLATE ORDER OF PROTECTION</t>
+  </si>
+  <si>
+    <t>4310 OTHER OFFENSE POSSESSION OF BURGLARY TOOLS</t>
+  </si>
+  <si>
+    <t>4255 KIDNAPPING UNLAWFUL INTERFERE/VISITATION</t>
+  </si>
+  <si>
+    <t>4240 KIDNAPPING FORCIBLE DETENTION</t>
+  </si>
+  <si>
+    <t>4230 KIDNAPPING UNLAWFUL RESTRAINT</t>
+  </si>
+  <si>
+    <t>4220 KIDNAPPING AGGRAVATED</t>
+  </si>
+  <si>
+    <t>4210 KIDNAPPING KIDNAPPING</t>
+  </si>
+  <si>
+    <t>3980 INTIMIDATION COMPELLING CONFESSION</t>
+  </si>
+  <si>
+    <t>3975 INTIMIDATION COMPELLING ORG MEMBERSHIP</t>
+  </si>
+  <si>
+    <t>3970 INTIMIDATION EXTORTION</t>
+  </si>
+  <si>
+    <t>3966 INTIMIDATION EDUCATIONAL INTIMIDAITON</t>
+  </si>
+  <si>
+    <t>3960 INTIMIDATION INTIMIDATION</t>
+  </si>
+  <si>
+    <t>3920 INTERFERE WITH PUBLIC OFFICER OFFICIAL MISCONDUCT</t>
+  </si>
+  <si>
+    <t>3910 INTERFERE WITH PUBLIC OFFICER BRIBERY</t>
+  </si>
+  <si>
+    <t>3800 INTERFERE WITH PUBLIC OFFICER INTERFERENCE JUDICIAL PROCESS</t>
+  </si>
+  <si>
+    <t>3770 INTERFERE WITH PUBLIC OFFICER CONTRABAND IN PRISON</t>
+  </si>
+  <si>
+    <t>3400 PUBLIC PEACE VIOLATION LOOTING</t>
+  </si>
+  <si>
+    <t>3300 PUBLIC PEACE VIOLATION PUBLIC DEMONSTRATION</t>
+  </si>
+  <si>
+    <t>3200 PUBLIC PEACE VIOLATION ARMED VIOLENCE</t>
+  </si>
+  <si>
+    <t>3000 PUBLIC PEACE VIOLATION SELL/ADVERTISE FIREWORKS</t>
+  </si>
+  <si>
+    <t>2895 PUBLIC PEACE VIOLATION INTERFERE W/ EMERGENCY EQUIP</t>
+  </si>
+  <si>
+    <t>2890 PUBLIC PEACE VIOLATION OTHER VIOLATION</t>
+  </si>
+  <si>
+    <t>2851 PUBLIC PEACE VIOLATION ARSON THREAT</t>
+  </si>
+  <si>
+    <t>2850 PUBLIC PEACE VIOLATION BOMB THREAT</t>
+  </si>
+  <si>
+    <t>2826 OTHER OFFENSE HARASSMENT BY ELECTRONIC MEANS</t>
+  </si>
+  <si>
+    <t>2825 OTHER OFFENSE HARASSMENT BY TELEPHONE</t>
+  </si>
+  <si>
+    <t>2820 OTHER OFFENSE TELEPHONE THREAT</t>
+  </si>
+  <si>
+    <t>2500 CRIMINAL ABORTION CRIMINAL ABORTION</t>
+  </si>
+  <si>
+    <t>2160 NARCOTICS SALE/DEL DRUG PARAPHERNALIA</t>
+  </si>
+  <si>
+    <t>2120 NARCOTICS FAILURE TO KEEP HYPO RECORDS</t>
+  </si>
+  <si>
+    <t>2111 NARCOTICS SALE/DEL HYPODERMIC NEEDLE</t>
+  </si>
+  <si>
+    <t>2093 NARCOTICS FOUND SUSPECT NARCOTICS</t>
+  </si>
+  <si>
+    <t>2092 NARCOTICS SOLICIT NARCOTICS ON PUBLICWAY</t>
+  </si>
+  <si>
+    <t>2091 NARCOTICS FORFEIT PROPERTY</t>
+  </si>
+  <si>
+    <t>1780 OFFENSE INVOLVING CHILDREN OTHER OFFENSE</t>
+  </si>
+  <si>
+    <t>1775 OFFENSES INVOLVING CHILDREN SALE OF TRAVEL TICKET TO MINOR</t>
+  </si>
+  <si>
+    <t>1755 OFFENSES INVOLVING CHILDREN CHILD ABANDONMENT</t>
+  </si>
+  <si>
+    <t>1725 OFFENSES INVOLVING CHILDREN CONTRIBUTE CRIM DELINQUENCYJUVENILE</t>
+  </si>
+  <si>
+    <t>1715 OFFENSES INVOLVING CHILDREN SALE TOBACCO PRODUCTS TOMINOR</t>
+  </si>
+  <si>
+    <t>1710 OFFENSE INVOLVING CHILDREN ENDANGERING LIFE/HEALTH CHILD</t>
+  </si>
+  <si>
+    <t>1365 CRIMINAL TRESPASS TO RESIDENCE</t>
+  </si>
+  <si>
+    <t>1360 CRIMINAL TRESPASS TO VEHICLE</t>
+  </si>
+  <si>
+    <t>1350 CRIMINAL TRESPASS TO STATE SUP LAND</t>
+  </si>
+  <si>
+    <t>1335 CRIMINAL TRESPASS TO AIRPORT</t>
+  </si>
+  <si>
+    <t>1330 CRIMINAL TRESPASS TO LAND</t>
+  </si>
+  <si>
+    <t>Definition: The violation of miscellaneous laws or ordinances.</t>
+  </si>
+  <si>
+    <t>1035 ARSON POS: CHEMICAL/DRY-ICE DEVICE</t>
+  </si>
+  <si>
+    <t>(Crime Against Society)</t>
+  </si>
+  <si>
+    <t>1030 ARSON POS: EXPLOSIVE/INCENDIARY DEV</t>
+  </si>
+  <si>
+    <t>Misc Non-Index Offense (26)</t>
+  </si>
+  <si>
+    <t>3760 INTERFERE WITH PUBLIC OFFICER OBSTRUCTING SERVICE</t>
+  </si>
+  <si>
+    <t>3751 INTERFERE WITH PUBLIC OFFICER AIDING ARRESTEE ESCAPE</t>
+  </si>
+  <si>
+    <t>3750 INTERFERE WITH PUBLIC OFFICER ESCAPE</t>
+  </si>
+  <si>
+    <t>3740 INTERFERE WITH PUBLIC OFFICER CONCEALING/AIDING A FUGITIVE</t>
+  </si>
+  <si>
+    <t>3730 INTERFERE WITH PUBLIC OFFICER OBSTRUCTING JUSTICE</t>
+  </si>
+  <si>
+    <t>3720 INTERFERE WITH PUBLIC OFFICER REFUSING TO AID AN OFFICER</t>
+  </si>
+  <si>
+    <t>3710 INTERFERE WITH PUBLIC OFFICER RESIST/OBSTRUCT/DISARM OFFICER</t>
+  </si>
+  <si>
+    <t>3610 OTHER OFFENSE INTERFERE W/ HIGHER EDUCATION</t>
+  </si>
+  <si>
+    <t>3100 PUBLIC PEACE VIOLATION MOB ACTION</t>
+  </si>
+  <si>
+    <t>2870 PUBLIC PEACE VIOLATION PEEPING TOM</t>
+  </si>
+  <si>
+    <t>2860 PUBLIC PEACE VIOLATION FALSE POLICE REPORT</t>
+  </si>
+  <si>
+    <t>Definition: Any behavior that tends to disturb the public peace or decorum, scandalize the community, or shock the public sense of morality.</t>
+  </si>
+  <si>
+    <t>2840 PUBLIC PEACE VIOLATION FALSE FIRE ALARM</t>
+  </si>
+  <si>
+    <t>0470 PUBLIC PEACE VIOLATION RECKLESS CONDUCT</t>
+  </si>
+  <si>
+    <t>Disorderly Conduct (24)</t>
+  </si>
+  <si>
+    <t>2251 LIQUOR LAW VIOLATION EMPLOY MINOR</t>
+  </si>
+  <si>
+    <t>2250 LIQUOR LAW VIOLATION LIQUOR LICENSE VIOLATION</t>
+  </si>
+  <si>
+    <t>2240 LIQUOR LAW VIOLATION MINOR MISREPRESENT AGE</t>
+  </si>
+  <si>
+    <t>2230 LIQUOR LAW VIOLATION ILLEGAL CONSUMPTION BY MINOR</t>
+  </si>
+  <si>
+    <t>Definition: The violation of laws or ordinances prohibiting the manufacture, sale, purchase, transportation, possession, or use of alcoholic beverages.</t>
+  </si>
+  <si>
+    <t>2220 LIQUOR LAW VIOLATION ILLEGAL POSSESSION BY MINOR</t>
+  </si>
+  <si>
+    <t>(Crimes Against Society)</t>
+  </si>
+  <si>
+    <t>2210 LIQUOR LAW VIOLATION SELL/GIVE/DEL LIQUOR TO MINOR</t>
+  </si>
+  <si>
+    <t>Liquor License (22)</t>
+  </si>
+  <si>
+    <t>1792 KIDNAPPING CHILD ABDUCTION/STRANGER</t>
+  </si>
+  <si>
+    <t>1791 OFFENSE INVOLVING CHILDREN HARBOR RUNAWAY</t>
+  </si>
+  <si>
+    <t>1790 OFFENSE INVOLVING CHILDREN CHILD ABDUCTION</t>
+  </si>
+  <si>
+    <t>1752 OFFENSE INVOLVING CHILDREN AGG CRIM SEX ABUSE FAM MEMBER</t>
+  </si>
+  <si>
+    <t>1751 OFFENSE INVOLVING CHILDREN CRIM SEX ABUSE BY FAM MEMBER</t>
+  </si>
+  <si>
+    <t>Definition: Unlawful, nonviolent acts by a family member (or legal guardian) that threaten the physical, mental, or economic well-being or morals of another family member and that are not classifiable as other offenses, such as Assault, Incest, Statutory Rape, etc.</t>
+  </si>
+  <si>
+    <t>1750 OFFENSE INVOLVING CHILDREN CHILD ABUSE</t>
+  </si>
+  <si>
+    <t>(Crimes Against Persons and Society)</t>
+  </si>
+  <si>
+    <t>1720 OFFENSE INVOLVING CHILDREN CONTRIBUTE DELINQUENCY OF A CHILD</t>
+  </si>
+  <si>
+    <t>Offenses Against Family (20)</t>
+  </si>
+  <si>
+    <t>1697 GAMBLING POLICY/OTHER</t>
+  </si>
+  <si>
+    <t>1696 GAMBLING POLICY/WHEEL</t>
+  </si>
+  <si>
+    <t>1695 GAMBLING POLICY/PRESS</t>
+  </si>
+  <si>
+    <t>1694 GAMBLING POLICY/OFFICE</t>
+  </si>
+  <si>
+    <t>1693 GAMBLING POLICY/TURN-IN</t>
+  </si>
+  <si>
+    <t>1692 GAMBLING POLICY/RUNNER</t>
+  </si>
+  <si>
+    <t>1691 GAMBLING POLICY/STATION</t>
+  </si>
+  <si>
+    <t>1690 GAMBLING POLICY/HOUSEBOOK</t>
+  </si>
+  <si>
+    <t>1682 OTHER OFFENSE ANIMAL FIGHTING</t>
+  </si>
+  <si>
+    <t>1681 GAMBLING LOTTERY/PARLAY CARDS</t>
+  </si>
+  <si>
+    <t>1680 GAMBLING OTHER</t>
+  </si>
+  <si>
+    <t>1670 GAMBLING GAME/AMUSEMENT DEVICE</t>
+  </si>
+  <si>
+    <t>1661 GAMBLING GAME/DICE</t>
+  </si>
+  <si>
+    <t>1651 GAMBLING GAME/CARDS</t>
+  </si>
+  <si>
+    <t>1650 GAMBLING VIOL CHARITABLE GAME ACT</t>
+  </si>
+  <si>
+    <t>1640 GAMBLING REGISTER FED GAMBLING STAMP</t>
+  </si>
+  <si>
+    <t>1633 GAMBLING SPORTS TAMPERING</t>
+  </si>
+  <si>
+    <t>1632 GAMBLING WIREROOM/NUMBERS</t>
+  </si>
+  <si>
+    <t>1631 GAMBLING WIREROOM/SPORTS</t>
+  </si>
+  <si>
+    <t>1630 GAMBLING WIREROOM/HORSES</t>
+  </si>
+  <si>
+    <t>1627 GAMBLING LOTTERY/OTHER</t>
+  </si>
+  <si>
+    <t>1626 GAMBLING ILLEGAL ILL LOTTERY</t>
+  </si>
+  <si>
+    <t>1625 GAMBLING NATIONAL LOTTERY</t>
+  </si>
+  <si>
+    <t>1624 GAMBLING LOTTERY/PARI-MUTUEL</t>
+  </si>
+  <si>
+    <t>1623 GAMBLING BOLITA OR BOLI PUL/STATION</t>
+  </si>
+  <si>
+    <t>1622 GAMBLING BOLITA OR BOLI PUL/WRITER</t>
+  </si>
+  <si>
+    <t>1621 GAMBLING BOLITA OR BOLI PUL/RUNNER</t>
+  </si>
+  <si>
+    <t>1620 GAMBLING BOLITA OR BOLI PUL/OFFICE</t>
+  </si>
+  <si>
+    <t>Definition: To unlawfully bet or wager money or something else of value; assist, promote, or operate a game of chance for money or some other stake; possess or transmit wagering information; manufacture, sell, purchase, possess, or transport gambling equipment, devices, or goods; or tamper with the outcome of a sporting event or contest to gain a gambling advantage.</t>
+  </si>
+  <si>
+    <t>1611 GAMBLING BOOKMAKING/SPORTS</t>
+  </si>
+  <si>
+    <t>1610 GAMBLING BOOKMAKING/HORSES</t>
+  </si>
+  <si>
+    <t>Gambling (19)</t>
+  </si>
+  <si>
+    <t>2170 NARCOTICS POSSESSION OF DRUG EQUIPMENT</t>
+  </si>
+  <si>
+    <t>2110 NARCOTICS POS: HYPODERMIC NEEDLE</t>
+  </si>
+  <si>
+    <t>2095 NARCOTICS ATTEMPT POSSESSION NARCOTICS</t>
+  </si>
+  <si>
+    <t>2094 NARCOTICS ATTEMPT POSSESSION CANNABIS</t>
+  </si>
+  <si>
+    <t>2090 NARCOTICS ALTER/FORGE PRESCRIPTION</t>
+  </si>
+  <si>
+    <t>2080 NARCOTICS CONT SUBS:FAIL TO MAINT RECORD</t>
+  </si>
+  <si>
+    <t>2070 NARCOTICS DEL CONT SUBS TO PERSON &lt;18</t>
+  </si>
+  <si>
+    <t>2060 NARCOTICS FAIL REGISTER LIC:CONT SUBS</t>
+  </si>
+  <si>
+    <t>2050 NARCOTICS CRIMINAL DRUG CONSPIRACY</t>
+  </si>
+  <si>
+    <t>2040 NARCOTICS POSS: LOOK-ALIKE DRUGS</t>
+  </si>
+  <si>
+    <t>2032 NARCOTICS MANU/DELIVER: METHAMPHETAMINES</t>
+  </si>
+  <si>
+    <t>2031 NARCOTICS POSS: METHAMPHETAMINES</t>
+  </si>
+  <si>
+    <t>2030 NARCOTICS MANU/DELIVER:LOOK-ALIKE DRUG</t>
+  </si>
+  <si>
+    <t>2029 NARCOTICS POSS: HEROIN(BLACK TAR)</t>
+  </si>
+  <si>
+    <t>2028 NARCOTICS POSS: SYNTHETIC DRUGS</t>
+  </si>
+  <si>
+    <t>2027 NARCOTICS POSS: CRACK</t>
+  </si>
+  <si>
+    <t>2026 NARCOTICS POSS: PCP</t>
+  </si>
+  <si>
+    <t>2025 NARCOTICS POSS: HALLUCINOGENS</t>
+  </si>
+  <si>
+    <t>2024 NARCOTICS POSS: HEROIN(WHITE)</t>
+  </si>
+  <si>
+    <t>2023 NARCOTICS POSS: HEROIN(BRN/TAN)</t>
+  </si>
+  <si>
+    <t>2022 NARCOTICS POSS: COCAINE</t>
+  </si>
+  <si>
+    <t>2021 NARCOTICS POSS: BARBITUATES</t>
+  </si>
+  <si>
+    <t>2020 NARCOTICS POSS: AMPHETAMINES</t>
+  </si>
+  <si>
+    <t>2019 NARCOTICS MANU/DELIVER:HEROIN(BLACK TAR)</t>
+  </si>
+  <si>
+    <t>2018 NARCOTICS MANU/DELIVER:SYNTHETIC DRUGS</t>
+  </si>
+  <si>
+    <t>2017 NARCOTICS MANU/DELIVER:CRACK</t>
+  </si>
+  <si>
+    <t>2016 NARCOTICS MANU/DELIVER:PCP</t>
+  </si>
+  <si>
+    <t>2015 NARCOTICS MANU/DELIVER: HALLUCINOGEN</t>
+  </si>
+  <si>
+    <t>2014 NARCOTICS MANU/DELIVER: HEROIN (WHITE)</t>
+  </si>
+  <si>
+    <t>2013 NARCOTICS MANU/DELIVER: HEROIN(BRN/TAN)</t>
+  </si>
+  <si>
+    <t>2012 NARCOTICS MANU/DELIVER:COCAINE</t>
+  </si>
+  <si>
+    <t>2011 NARCOTICS MANU/DELIVER:BARBITUATES</t>
+  </si>
+  <si>
+    <t>2010 NARCOTICS MANU/DELIVER:AMPHETAMINES</t>
+  </si>
+  <si>
+    <t>1900 OTHER NARCOTIC VIOLATION INTOXICATING COMPOUNDS</t>
+  </si>
+  <si>
+    <t>1860 NARCOTICS CALCULATED CANNABIS CONSPIRACY</t>
+  </si>
+  <si>
+    <t>1850 NARCOTICS CANNABIS PLANT</t>
+  </si>
+  <si>
+    <t>1840 NARCOTICS DELIVER CANNABIS TO PERSON &lt;18</t>
+  </si>
+  <si>
+    <t>1822 NARCOTICS MANU/DEL:CANNABIS OVER 10 GMS</t>
+  </si>
+  <si>
+    <t>1821 NARCOTICS MANU/DEL:CANNABIS 10GM OR LESS</t>
+  </si>
+  <si>
+    <t>Definition: The violation of laws prohibiting the production, distribution, and/or use of certain controlled substances and the equipment or devices utilized in their preparation and/or use.</t>
+  </si>
+  <si>
+    <t>1812 NARCOTICS POSS: CANNABIS MORE THAN 30GMS</t>
+  </si>
+  <si>
+    <t>1811 NARCOTICS POSS: CANNABIS 30GMS OR LESS</t>
+  </si>
+  <si>
+    <t>Drug Abuse (18)</t>
+  </si>
+  <si>
+    <t>5004 SEX OFFENSE ATT CRIM SEXUAL ABUSE</t>
+  </si>
+  <si>
+    <t>2830 OTHER OFFENSE OBSCENE TELEPHONE CALLS</t>
+  </si>
+  <si>
+    <t>1590 SEX OFFENSE ATT AGG CRIMINAL SEXUAL ABUSE</t>
+  </si>
+  <si>
+    <t>1585 SEX OFFENSE OTHER</t>
+  </si>
+  <si>
+    <t>1582 OFFENSE INVOLVING CHILDREN CHILD PORNOGRAPHY</t>
+  </si>
+  <si>
+    <t>1580 SEX OFFENSE SEX RELATION IN FAMILY</t>
+  </si>
+  <si>
+    <t>1578 SEX OFFENSE MARRYING A BIGAMIST</t>
+  </si>
+  <si>
+    <t>1576 SEX OFFENSE BIGAMY</t>
+  </si>
+  <si>
+    <t>1574 SEX OFFENSE FORNICATION</t>
+  </si>
+  <si>
+    <t>1572 SEX OFFENSE ADULTRY</t>
+  </si>
+  <si>
+    <t>1570 SEX OFFENSE PUBLIC INDECENCY</t>
+  </si>
+  <si>
+    <t>1566 SEX OFFENSE INDECENT SOLICITATION/ADULT</t>
+  </si>
+  <si>
+    <t>1565 SEX OFFENSE INDECENT SOLICITATION/CHILD</t>
+  </si>
+  <si>
+    <t>1564 SEX OFFENSE CRIMINAL TRANSMISSION OF HIV</t>
+  </si>
+  <si>
+    <t>1563 SEX OFFENSE CRIMINAL SEXUAL ABUSE</t>
+  </si>
+  <si>
+    <t>1562 SEX OFFENSE AGG CRIMINAL SEXUAL ABUSE</t>
+  </si>
+  <si>
+    <t>1541 OBSCENITY SALE/DIST OBSCENE MAT TO MINOR</t>
+  </si>
+  <si>
+    <t>1540 OBSCENITY OBSCENE MATTER</t>
+  </si>
+  <si>
+    <t>Definition: The violation of laws prohibiting offenses against chastity, common decency, morals, and the like such as: adultery and fornication; bigamy; indecent exposure; and indecent liberties.</t>
+  </si>
+  <si>
+    <t>1536 PUBLIC INDECENCY LICENSED PREMISE</t>
+  </si>
+  <si>
+    <t>1535 OBSCENITY OBSCENITY</t>
+  </si>
+  <si>
+    <t>Criminal Sexual Abuse (17)</t>
+  </si>
+  <si>
+    <t>1549 PROSTITUTION OTHER PROSTITUTION OFFENSE</t>
+  </si>
+  <si>
+    <t>1544 SEX OFFENSE SEXUAL EXPLOITATION OF A CHILD</t>
+  </si>
+  <si>
+    <t>1542 OBSCENITY SALE OF OBSCENE MATERIALS</t>
+  </si>
+  <si>
+    <t>1537 OFFENSE INVOLVING CHILDREN POS: PORNOGRAPHIC PRINT</t>
+  </si>
+  <si>
+    <t>1531 PROSTITUTION JUVENILE PIMPING</t>
+  </si>
+  <si>
+    <t>1530 PROSTITUTION PIMPING</t>
+  </si>
+  <si>
+    <t>1526 PROSTITUTION PATRONIZE JUVENILE PROSTITUTE</t>
+  </si>
+  <si>
+    <t>1525 PROSTITUTION PATRONIZING A PROSTITUTE</t>
+  </si>
+  <si>
+    <t>1521 PROSTITUTION KEEP PLACE OF JUV PROSTITUTION</t>
+  </si>
+  <si>
+    <t>1520 PROSTITUTION KEEP PLACE OF PROSTITUTION</t>
+  </si>
+  <si>
+    <t>1515 PROSTITUTION PANDERING</t>
+  </si>
+  <si>
+    <t>1513 PROSTITUTION SOLICIT FOR BUSINESS</t>
+  </si>
+  <si>
+    <t>1512 PROSTITUTION SOLICIT FOR PROSTITUTE</t>
+  </si>
+  <si>
+    <t>1511 PROSTITUTION IN TAVERN</t>
+  </si>
+  <si>
+    <t>1510 PROSTITUTION CAB OPERATION</t>
+  </si>
+  <si>
+    <t>1507 PROSTITUTION SOLICIT OFF PUBLIC WAY</t>
+  </si>
+  <si>
+    <t>Definition: To unlawfully engage in or promote sexual activities for profit.</t>
+  </si>
+  <si>
+    <t>1506 PROSTITUTION SOLICIT ON PUBLIC WAY</t>
+  </si>
+  <si>
+    <t>1505 PROSTITUTION CALL OPERATION</t>
+  </si>
+  <si>
+    <t>Prostitution (16)</t>
+  </si>
+  <si>
+    <t>2900 WEAPONS VIOLATION UNLAWFUL USE/SALE AIR RIFLE</t>
+  </si>
+  <si>
+    <t>1477 WEAPONS VIOLATION RECKLESS FIREARM DISCHARGE</t>
+  </si>
+  <si>
+    <t>1476 WEAPONS VIOLATION USE OF METAL PIERCING BULLETS</t>
+  </si>
+  <si>
+    <t>1475 WEAPONS VIOLATION SALE OF METAL PIERCING BULLETS</t>
+  </si>
+  <si>
+    <t>1460 WEAPONS VIOLATION POSS FIREARM/AMMO:NO FOID CARD</t>
+  </si>
+  <si>
+    <t>1450 WEAPONS VIOLATION DEFACE IDENT MARKS OF FIREARM</t>
+  </si>
+  <si>
+    <t>1440 WEAPONS VIOLATION REGISTER OF SALES BY DEALER</t>
+  </si>
+  <si>
+    <t>143C WEAPONS VIOLATION UNLAWFUL POSS AMMUNITION</t>
+  </si>
+  <si>
+    <t>143B WEAPONS VIOLATION UNLAWFUL POSS OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>143A WEAPONS VIOLATION UNLAWFUL POSS OF HANDGUN</t>
+  </si>
+  <si>
+    <t>1435 WEAPONS VIOLATION POS: FIREARM AT SCHOOL</t>
+  </si>
+  <si>
+    <t>142B WEAPONS VIOLATION UNLAWFUL SALE OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>142A WEAPONS VIOLATION UNLAWFUL SALE HANDGUN</t>
+  </si>
+  <si>
+    <t>141C WEAPONS VIOLATION UNLAWFUL USE OTHER DANG WEAPON</t>
+  </si>
+  <si>
+    <t>Definition: The violation of laws or ordinances prohibiting the manufacture, sale, purchase, transportation, possession, concealment, or use of firearms, cutting instruments, explosives, incendiary devices, or other deadly weapons.</t>
+  </si>
+  <si>
+    <t>141B WEAPONS VIOLATION UNLAWFUL USE OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>141A WEAPONS VIOLATION UNLAWFUL USE HANDGUN</t>
+  </si>
+  <si>
+    <t>Weapons Violation (15)</t>
+  </si>
+  <si>
+    <t>1375 CRIMINAL DAMAGE INSTITUTIONAL VANDALISM</t>
+  </si>
+  <si>
+    <t>1370 CRIMINAL DAMAGE TO FIRE FIGHT.APP.EQUIP</t>
+  </si>
+  <si>
+    <t>1345 CRIMINAL DAMAGE TO CITY OF CHICAGO PROPERTY</t>
+  </si>
+  <si>
+    <t>1340 CRIMINAL DAMAGE TO STATE SUP PROP</t>
+  </si>
+  <si>
+    <t>Definition: To willfully or maliciously destroy, damage, deface, or otherwise injure real or personal property without the consent of the owner or the person having custody or control of it.</t>
+  </si>
+  <si>
+    <t>1320 CRIMINAL DAMAGE TO VEHICLE</t>
+  </si>
+  <si>
+    <t>(Crime Against Property)</t>
+  </si>
+  <si>
+    <t>1310 CRIMINAL DAMAGE TO PROPERTY</t>
+  </si>
+  <si>
+    <t>Vandalism (14)</t>
+  </si>
+  <si>
+    <t>Definition: Receiving, buying, selling, possessing, concealing, or transporting any property with the knowledge that it has been unlawfully taken, as by Burglary, Embezzlement, Fraud, Larceny, Robbery, etc.</t>
+  </si>
+  <si>
+    <t>(Crimes Against Property)</t>
+  </si>
+  <si>
+    <t>1200 DECEPTIVE PRACTICE STOLEN PROP: BUY/RECEIVE/POS.</t>
+  </si>
+  <si>
+    <t>Stolen Property (13)</t>
+  </si>
+  <si>
+    <t>Definition: The unlawful misappropriation by an offender to his/her own use or purpose of money, property, or some other thing of value entrusted to his/her care, custody, or control.</t>
+  </si>
+  <si>
+    <t>1140 DECEPTIVE PRACTICE EMBEZZLEMENT</t>
+  </si>
+  <si>
+    <t>Embezzlement (12)</t>
+  </si>
+  <si>
+    <t>1305 CRIMINAL DAMAGE CRIMINAL DEFACEMENT</t>
+  </si>
+  <si>
+    <t>1265 CRIMINAL DAMAGE LIBRARY VANDALISM</t>
+  </si>
+  <si>
+    <t>1261 DECEPTIVE PRACTICE UNAUTHORIZED VIDEOTAPING</t>
+  </si>
+  <si>
+    <t>1260 DECEPTIVE PRACTICE LIBRARY THEFT</t>
+  </si>
+  <si>
+    <t>1255 DECEPTIVE PRACTICE UNIDENTIFIABLE RECORDING SOUND</t>
+  </si>
+  <si>
+    <t>1245 DECEPTIVE PRACTICE PAY TV SERVICE OFFENSES</t>
+  </si>
+  <si>
+    <t>1242 DECEPTIVE PRACTICE COMPUTER FRAUD</t>
+  </si>
+  <si>
+    <t>1241 DECEPTIVE PRACTICE AGGRAVATED COMPUTER TAMPERING</t>
+  </si>
+  <si>
+    <t>1240 DECEPTIVE PRACTICE UNLAWFUL USE OF A COMPUTER</t>
+  </si>
+  <si>
+    <t>1235 DECEPTIVE PRACTICE UNLAWFUL USE OF RECORDED SOUND</t>
+  </si>
+  <si>
+    <t>1230 DECEPTIVE PRACTICE POSS. KEYS OR DEV.TO COIN MACH</t>
+  </si>
+  <si>
+    <t>1220 DECEPTIVE PRACTICE THEFT OF LOST/MISLAID PROP</t>
+  </si>
+  <si>
+    <t>1210 DECEPTIVE PRACTICE THEFT OF LABOR/SERVICES</t>
+  </si>
+  <si>
+    <t>1206 DECEPTIVE PRACTICE THEFT BY LESSEE,MOTOR VEH</t>
+  </si>
+  <si>
+    <t>1205 DECEPTIVE PRACTICE THEFT BY LESSEE,NON-VEH</t>
+  </si>
+  <si>
+    <t>1195 DECEPTIVE PRACTICE FINAN EXPLOIT-ELDERLY/DISABLED</t>
+  </si>
+  <si>
+    <t>1185 DECEPTIVE PRACTICE DECEPTIVE COLLECTION PRACTICES</t>
+  </si>
+  <si>
+    <t>1170 DECEPTIVE PRACTICE IMPERSONATION</t>
+  </si>
+  <si>
+    <t>1160 DECEPTIVE PRACTICE ALTER COINS</t>
+  </si>
+  <si>
+    <t>1152 DECEPTIVE PRACTICE ILLEGAL USE CASH CARD</t>
+  </si>
+  <si>
+    <t>1151 DECEPTIVE PRACTICE ILLEGAL POSSESSION CASH CARD</t>
+  </si>
+  <si>
+    <t>1150 DECEPTIVE PRACTICE CREDIT CARD FRAUD</t>
+  </si>
+  <si>
+    <t>1135 DECEPTIVE PRACTICE INSURANCE FRAUD</t>
+  </si>
+  <si>
+    <t>Definition: The intentional perversion of the truth for the purpose of inducing another person or other entity in reliance upon it to part with something of value or to surrender a legal right.</t>
+  </si>
+  <si>
+    <t>1130 DECEPTIVE PRACTICE FRAUD OR CONFIDENCE GAME</t>
+  </si>
+  <si>
+    <t>1110 DECEPTIVE PRACTICE BOGUS CHECK</t>
+  </si>
+  <si>
+    <t>Fraud (11)</t>
+  </si>
+  <si>
+    <t>1122 DECEPTIVE PRACTICE COUNTERFEIT CHECK</t>
+  </si>
+  <si>
+    <t>Definition: The altering, copying, or imitation of something, without authority or right, with the intent to deceive or defraud by passing the copy or thing altered or imitated as that which is original or genuine or the selling, buying, or possession of an altered, copied, or imitated thing with the intent to deceive or defraud.</t>
+  </si>
+  <si>
+    <t>1121 DECEPTIVE PRACTICE COUNTERFEITING DOCUMENT</t>
+  </si>
+  <si>
+    <t>1120 DECEPTIVE PRACTICE FORGERY</t>
+  </si>
+  <si>
+    <t>Forgery &amp; Counterfeiting (10)</t>
+  </si>
+  <si>
+    <t>1090 ARSON ATTEMPT ARSON</t>
+  </si>
+  <si>
+    <t>1025 ARSON AGGRAVATED</t>
+  </si>
+  <si>
+    <t>Definition: To unlawfully and intentionally damage or attempt to damage any real or personal property by fire or incendiary device.</t>
+  </si>
+  <si>
+    <t>1020 ARSON BY FIRE</t>
+  </si>
+  <si>
+    <t>1010 ARSON BY EXPLOSIVE</t>
+  </si>
+  <si>
+    <t>Arson (09) (Index)</t>
+  </si>
+  <si>
+    <t>0494 RITUALISM AGG RIT MUT: HANDS/FIST/FEET NO/MINOR INJURY</t>
+  </si>
+  <si>
+    <t>0487 BATTERY AGGRAVATED OF A UNBORN CHILD</t>
+  </si>
+  <si>
+    <t>0486 BATTERY DOMESTIC BATTERY SIMPLE</t>
+  </si>
+  <si>
+    <t>0484 BATTERY PRO EMP HANDS NO/MIN INJURY</t>
+  </si>
+  <si>
+    <t>0475 BATTERY OF UNBORN CHILD</t>
+  </si>
+  <si>
+    <t>0460 BATTERY SIMPLE</t>
+  </si>
+  <si>
+    <t>Definition: A person commits battery if he intentionally or knowingly without legal justification and by any means, (1) causes bodily harm to an individual or (2) makes physical contact of an insulting or provoking nature with an individual.</t>
+  </si>
+  <si>
+    <t>0454 BATTERY AGG PO HANDS NO/MIN INJURY</t>
+  </si>
+  <si>
+    <t>(Crimes Against Persons)</t>
+  </si>
+  <si>
+    <t>0440 BATTERY AGG: HANDS/FIST/FEET NO/MINOR INJURY</t>
+  </si>
+  <si>
+    <t>Simple Battery (08B)</t>
+  </si>
+  <si>
+    <t>0583 STALKING CYBERSTALKING</t>
+  </si>
+  <si>
+    <t>0581 STALKING AGGRAVATED</t>
+  </si>
+  <si>
+    <t>0580 STALKING SIMPLE</t>
+  </si>
+  <si>
+    <t>0560 ASSAULT SIMPLE</t>
+  </si>
+  <si>
+    <t>Definition: An unlawful physical attack by one person upon another where neither the offender displays a weapon, nor the victim suffers obvious severe or aggravated bodily injury involving apparent broken bones, loss of teeth, possible internal injury, severe laceration, or loss of consciousness.</t>
+  </si>
+  <si>
+    <t>0554 ASSAULT AGG PO HANDS NO/MIN INJURY</t>
+  </si>
+  <si>
+    <t>0545 ASSAULT PRO EMP HANDS NO/MIN INJURY</t>
+  </si>
+  <si>
+    <t>Simple Assault (08A)</t>
+  </si>
+  <si>
+    <t>0938 MOTOR VEHICLE THEFT THEFT/RECOVERY: CYCLE, SCOOTER, BIKE NO VIN</t>
+  </si>
+  <si>
+    <t>0937 MOTOR VEHICLE THEFT THEFT/RECOVERY: CYCLE, SCOOTER, BIKE W-VIN</t>
+  </si>
+  <si>
+    <t>0935 MOTOR VEHICLE THEFT THEFT/RECOVERY: TRUCK,BUS,MHOME</t>
+  </si>
+  <si>
+    <t>0930 MOTOR VEHICLE THEFT THEFT/RECOVERY: AUTOMOBILE</t>
+  </si>
+  <si>
+    <t>0928 MOTOR VEHICLE THEFT ATTEMPT: CYCLE, SCOOTER, BIKE NO VIN</t>
+  </si>
+  <si>
+    <t>0927 MOTOR VEHICLE THEFT ATTEMPT: CYCLE, SCOOTER, BIKE W-VIN</t>
+  </si>
+  <si>
+    <t>0925 MOTOR VEHICLE THEFT ATT: TRUCK, BUS, MOTOR HOME</t>
+  </si>
+  <si>
+    <t>0920 MOTOR VEHICLE THEFT ATT: AUTOMOBILE</t>
+  </si>
+  <si>
+    <t>0918 MOTOR VEHICLE THEFT CYCLE, SCOOTER, BIKE NO VIN</t>
+  </si>
+  <si>
+    <t>0917 MOTOR VEHICLE THEFT CYCLE, SCOOTER, BIKE W-VIN</t>
+  </si>
+  <si>
+    <t>Definition: The theft of a motor vehicle.</t>
+  </si>
+  <si>
+    <t>0915 MOTOR VEHICLE THEFT TRUCK, BUS, MOTOR HOME</t>
+  </si>
+  <si>
+    <t>0910 MOTOR VEHICLE THEFT AUTOMOBILE</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft (07) (Index)</t>
+  </si>
+  <si>
+    <t>0895 THEFT FROM COIN-OP MACHINE/DEVICE</t>
+  </si>
+  <si>
+    <t>0890 THEFT FROM BUILDING</t>
+  </si>
+  <si>
+    <t>0880 THEFT PURSE-SNATCHING</t>
+  </si>
+  <si>
+    <t>0870 THEFT POCKET-PICKING</t>
+  </si>
+  <si>
+    <t>0865 THEFT DELIVERY CONTAINER THEFT</t>
+  </si>
+  <si>
+    <t>0860 THEFT RETAIL THEFT</t>
+  </si>
+  <si>
+    <t>0850 THEFT ATTEMPT THEFT</t>
+  </si>
+  <si>
+    <t>0843 THEFT ATTEMPT FINANCIAL IDENTITY THEFT</t>
+  </si>
+  <si>
+    <t>0842 THEFT AGG: FINANCIAL ID THEFT</t>
+  </si>
+  <si>
+    <t>0841 THEFT FINANCIAL ID THEFT:$300 &amp;UNDER</t>
+  </si>
+  <si>
+    <t>0840 THEFT FINANCIAL ID THEFT: OVER $300</t>
+  </si>
+  <si>
+    <t>Definition: The unlawful taking, carrying, leading, or riding away of property from the possession or constructive possession of another person.</t>
+  </si>
+  <si>
+    <t>0820 THEFT $300 AND UNDER</t>
+  </si>
+  <si>
+    <t>0810 THEFT OVER $300</t>
+  </si>
+  <si>
+    <t>Larceny (06) (Index)</t>
+  </si>
+  <si>
+    <t>0650 BURGLARY HOME INVASION</t>
+  </si>
+  <si>
+    <t>0630 BURGLARY ATTEMPT FORCIBLE ENTRY</t>
+  </si>
+  <si>
+    <t>Definition: The unlawful entry into a building or other structure with the intent to commit a felony or a theft.</t>
+  </si>
+  <si>
+    <t>0620 BURGLARY UNLAWFUL ENTRY</t>
+  </si>
+  <si>
+    <t>0610 BURGLARY FORCIBLE ENTRY</t>
+  </si>
+  <si>
+    <t>Burglary (05) (Index)</t>
+  </si>
+  <si>
+    <t>0510 RITUALISM AGG RIT MUT: HANDS/FIST/FEET SERIOUS INJURY</t>
+  </si>
+  <si>
+    <t>0498 BATTERY AGGRAVATED DOMESTIC BATTERY: HANDS/FIST/FEET SERIOUS INJURY</t>
+  </si>
+  <si>
+    <t>0497 BATTERY AGGRAVATED DOMESTIC BATTERY: OTHER DANG WEAPON</t>
+  </si>
+  <si>
+    <t>0496 BATTERY AGGRAVATED DOMESTIC BATTERY: KNIFE/CUTTING INST</t>
+  </si>
+  <si>
+    <t>0495 BATTERY AGGRAVATED OF A SENIOR CITIZEN</t>
+  </si>
+  <si>
+    <t>0493 RITUALISM AGG RITUAL MUT:OTH DANG WEAPON</t>
+  </si>
+  <si>
+    <t>0492 RITUALISM AGG RITUAL MUT:KNIFE/CUTTING I</t>
+  </si>
+  <si>
+    <t>0491 RITUALISM AGG RITUAL MUT:OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>0490 RITUALISM AGG RITUAL MUT:HANDGUN</t>
+  </si>
+  <si>
+    <t>0489 BATTERY AGGRAVATED DOMESTIC BATTERY: OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>0488 BATTERY AGGRAVATED DOMESTIC BATTERY: HANDGUN</t>
+  </si>
+  <si>
+    <t>0485 BATTERY AGGRAVATED OF A CHILD</t>
+  </si>
+  <si>
+    <t>0483 BATTERY AGG PRO.EMP: OTHER DANG WEAPON</t>
+  </si>
+  <si>
+    <t>0482 BATTERY AGG PRO.EMP:KNIFE/CUTTING INST</t>
+  </si>
+  <si>
+    <t>0481 BATTERY AGG PRO.EMP: OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>0480 BATTERY AGG PRO.EMP: HANDGUN</t>
+  </si>
+  <si>
+    <t>0479 BATTERY AGG: HANDS/FIST/FEET SERIOUS INJURY</t>
+  </si>
+  <si>
+    <t>0462 BATTERY AGG PRO EMP HANDS SERIOUS INJ</t>
+  </si>
+  <si>
+    <t>0461 BATTERY AGG PO HANDS ETC SERIOUS INJ</t>
+  </si>
+  <si>
+    <t>0453 BATTERY AGGRAVATED PO: OTHER DANG WEAP</t>
+  </si>
+  <si>
+    <t>0452 BATTERY AGGRAVATED PO: KNIFE/CUT INSTR</t>
+  </si>
+  <si>
+    <t>0451 BATTERY AGGRAVATED PO: OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>0450 BATTERY AGGRAVATED PO: HANDGUN</t>
+  </si>
+  <si>
+    <t>0430 BATTERY AGGRAVATED: OTHER DANG WEAPON</t>
+  </si>
+  <si>
+    <t>0420 BATTERY AGGRAVATED:KNIFE/CUTTING INSTR</t>
+  </si>
+  <si>
+    <t>Definition: An unlawful attack by one person upon another wherein the offender uses a weapon or the victim suffers obvious severe or aggravated bodily injury involving apparent broken bones, loss of teeth, possible internal injury, severe laceration, or loss of consciousness.</t>
+  </si>
+  <si>
+    <t>041B BATTERY AGGRAVATED: OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>041A BATTERY AGGRAVATED: HANDGUN</t>
+  </si>
+  <si>
+    <t>Aggravated Battery (04B) (Index)</t>
+  </si>
+  <si>
+    <t>0558 ASSAULT AGG PRO.EMP: OTHER DANG WEAPON</t>
+  </si>
+  <si>
+    <t>0557 ASSAULT AGG PRO.EMP:KNIFE/CUTTING INST</t>
+  </si>
+  <si>
+    <t>0556 ASSAULT AGG PRO.EMP: OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>0555 ASSAULT AGG PRO.EMP: HANDGUN</t>
+  </si>
+  <si>
+    <t>0553 ASSAULT AGGRAVATED PO: OTHER DANG WEAP</t>
+  </si>
+  <si>
+    <t>0552 ASSAULT AGGRAVATED PO:KNIFE/CUT INSTR</t>
+  </si>
+  <si>
+    <t>0551 ASSAULT AGGRAVATED PO: OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>0550 ASSAULT AGGRAVATED PO: HANDGUN</t>
+  </si>
+  <si>
+    <t>0530 ASSAULT AGGRAVATED: OTHER DANG WEAPON</t>
+  </si>
+  <si>
+    <t>0520 ASSAULT AGGRAVATED:KNIFE/CUTTING INSTR</t>
+  </si>
+  <si>
+    <t>Definition: An unlawful attack by one person upon another wherein the offender displays a weapon in a threatening manner. Placing someone in reasonable apprehension of receiving a battery.</t>
+  </si>
+  <si>
+    <t>051B ASSAULT AGGRAVATED: OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>051A ASSAULT AGGRAVATED: HANDGUN</t>
+  </si>
+  <si>
+    <t>Aggravated Assault (04A) (Index)</t>
+  </si>
+  <si>
+    <t>0340 ROBBERY ATTEMPT: STRONGARM-NO WEAPON</t>
+  </si>
+  <si>
+    <t>033B ROBBERY ATTEMPT: ARMED-OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>033A ROBBERY ATTEMPT: ARMED-HANDGUN</t>
+  </si>
+  <si>
+    <t>0337 ROBBERY ATTEMPT: ARMED-OTHER DANG WEAP</t>
+  </si>
+  <si>
+    <t>0334 ROBBERY ATTEMPT: ARMED-KNIFE/CUT INSTR</t>
+  </si>
+  <si>
+    <t>0331 ROBBERY ATTEMPT: AGGRAVATED</t>
+  </si>
+  <si>
+    <t>0330 ROBBERY AGGRAVATED</t>
+  </si>
+  <si>
+    <t>0326 ROBBERY AGGRAVATED VEHICULAR HIJACKING</t>
+  </si>
+  <si>
+    <t>0325 ROBBERY VEHICULAR HIJACKING</t>
+  </si>
+  <si>
+    <t>0320 ROBBERY STRONGARM - NO WEAPON</t>
+  </si>
+  <si>
+    <t>031B ROBBERY ARMED: OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>031A ROBBERY ARMED: HANDGUN</t>
+  </si>
+  <si>
+    <t>Definition: The taking or attempting to take anything of value under confrontational circumstances from the control, custody, or care of another person by force or threat of force or violence and/or by putting the victim in fear of immediate harm.</t>
+  </si>
+  <si>
+    <t>0313 ROBBERY ARMED: OTHER DANGEROUS WEAPON</t>
+  </si>
+  <si>
+    <t>0312 ROBBERY ARMED:KNIFE/CUTTING INSTRUMENT</t>
+  </si>
+  <si>
+    <t>Robbery (03) (Index)</t>
+  </si>
+  <si>
+    <t>1754 OFFENSE INVOLVING CHILDREN AGG SEX ASSLT OF CHILD FAM MBR</t>
+  </si>
+  <si>
+    <t>1753 OFFENSE INVOLVING CHILDREN SEX ASSLT OF CHILD BY FAM MBR</t>
+  </si>
+  <si>
+    <t>0291 CRIM SEXUAL ASSAULT ATTEMPT NON-AGGRAVATED</t>
+  </si>
+  <si>
+    <t>0281 CRIM SEXUAL ASSAULT NON-AGGRAVATED</t>
+  </si>
+  <si>
+    <t>0275 CRIM SEXUAL ASSAULT ATTEMPT AGG: OTHER</t>
+  </si>
+  <si>
+    <t>0274 CRIM SEXUAL ASSAULT ATTEMPT AGG: OTHER DANG WEAPON</t>
+  </si>
+  <si>
+    <t>0273 CRIM SEXUAL ASSAULT ATTEMPT AGG: KNIFE/CUT INSTR</t>
+  </si>
+  <si>
+    <t>0272 CRIM SEXUAL ASSAULT ATTEMPT AGG: OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>0271 CRIM SEXUAL ASSAULT ATTEMPT AGG: HANDGUN</t>
+  </si>
+  <si>
+    <t>0266 CRIM SEXUAL ASSAULT PREDATORY</t>
+  </si>
+  <si>
+    <t>0265 CRIM SEXUAL ASSAULT AGGRAVATED: OTHER</t>
+  </si>
+  <si>
+    <t>0264 CRIM SEXUAL ASSAULT AGGRAVATED: OTHER DANG WEAPON</t>
+  </si>
+  <si>
+    <t>0263 CRIM SEXUAL ASSAULT AGGRAVATED: KNIFE/CUT INSTR</t>
+  </si>
+  <si>
+    <t>Definition: Any sexual act directed against another person, forcibly and/or against that person's will or not forcibly or against the person's will in instances where the victim is incapable of giving consent.</t>
+  </si>
+  <si>
+    <t>0262 CRIM SEXUAL ASSAULT AGGRAVATED: OTHER FIREARM</t>
+  </si>
+  <si>
+    <t>0261 CRIM SEXUAL ASSAULT AGGRAVATED: HANDGUN</t>
+  </si>
+  <si>
+    <t>Criminal Sexual Assault (02) (Index)</t>
+  </si>
+  <si>
+    <t>Definition:The killing of another person through negligence.</t>
+  </si>
+  <si>
+    <t>0142 HOMICIDE RECKLESS HOMICIDE</t>
+  </si>
+  <si>
+    <t>0141 HOMICIDE INVOLUNTARY MANSLAUGHTER</t>
+  </si>
+  <si>
+    <t>Involuntary Manslaughter (01B)</t>
+  </si>
+  <si>
+    <t>Definition: The killing of one human being by another.</t>
+  </si>
+  <si>
+    <t>0130 HOMICIDE SECOND DEGREE MURDER</t>
+  </si>
+  <si>
+    <t>0110 HOMICIDE FIRST DEGREE MURDER</t>
+  </si>
+  <si>
+    <t>Homicide 1st &amp; 2nd Degree (01A) (Index)</t>
+  </si>
+  <si>
+    <t>Uniform Crime Reporting (UCR) Code and Description</t>
+  </si>
+  <si>
+    <t>Crime Types with Definition (NIBRS Code)</t>
+  </si>
+  <si>
+    <t>location_description</t>
+  </si>
+  <si>
+    <t>AIRPORT BUILDING NON-TERMINAL - NON-SECURE AREA</t>
+  </si>
+  <si>
+    <t>AIRPORT BUILDING NON-TERMINAL - SECURE AREA</t>
+  </si>
+  <si>
+    <t>AIRPORT EXTERIOR - NON-SECURE AREA</t>
+  </si>
+  <si>
+    <t>AIRPORT EXTERIOR - SECURE AREA</t>
+  </si>
+  <si>
+    <t>AIRPORT PARKING LOT</t>
+  </si>
+  <si>
+    <t>AIRPORT TERMINAL LOWER LEVEL - NON-SECURE AREA</t>
+  </si>
+  <si>
+    <t>AIRPORT TERMINAL LOWER LEVEL - SECURE AREA</t>
+  </si>
+  <si>
+    <t>AIRPORT TERMINAL MEZZANINE - NON-SECURE AREA</t>
+  </si>
+  <si>
+    <t>AIRPORT TERMINAL UPPER LEVEL - NON-SECURE AREA</t>
+  </si>
+  <si>
+    <t>AIRPORT TERMINAL UPPER LEVEL - SECURE AREA</t>
+  </si>
+  <si>
+    <t>AIRPORT TRANSPORTATION SYSTEM (ATS)</t>
+  </si>
+  <si>
+    <t>AIRPORT VENDING ESTABLISHMENT</t>
+  </si>
+  <si>
+    <t>AIRPORT/AIRCRAFT</t>
+  </si>
+  <si>
+    <t>ANIMAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>APARTMENT</t>
+  </si>
+  <si>
+    <t>APPLIANCE STORE</t>
+  </si>
+  <si>
+    <t>ATHLETIC CLUB</t>
+  </si>
+  <si>
+    <t>ATM (AUTOMATIC TELLER MACHINE)</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>AUTO / BOAT / RV DEALERSHIP</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>BANQUET HALL</t>
+  </si>
+  <si>
+    <t>BAR OR TAVERN</t>
+  </si>
+  <si>
+    <t>BARBER SHOP/BEAUTY SALON</t>
+  </si>
+  <si>
+    <t>BARBERSHOP</t>
+  </si>
+  <si>
+    <t>BASEMENT</t>
+  </si>
+  <si>
+    <t>BOAT / WATERCRAFT</t>
+  </si>
+  <si>
+    <t>BOAT/WATERCRAFT</t>
+  </si>
+  <si>
+    <t>BOWLING ALLEY</t>
+  </si>
+  <si>
+    <t>CAR WASH</t>
+  </si>
+  <si>
+    <t>CHA APARTMENT</t>
+  </si>
+  <si>
+    <t>CHA ELEVATOR</t>
+  </si>
+  <si>
+    <t>CHA GROUNDS</t>
+  </si>
+  <si>
+    <t>CHA HALLWAY</t>
+  </si>
+  <si>
+    <t>CHA HALLWAY / STAIRWELL / ELEVATOR</t>
+  </si>
+  <si>
+    <t>CHA HALLWAY/STAIRWELL/ELEVATOR</t>
+  </si>
+  <si>
+    <t>CHA LOBBY</t>
+  </si>
+  <si>
+    <t>CHA PARKING LOT</t>
+  </si>
+  <si>
+    <t>CHA PARKING LOT / GROUNDS</t>
+  </si>
+  <si>
+    <t>CHA PARKING LOT/GROUNDS</t>
+  </si>
+  <si>
+    <t>CHA PLAY LOT</t>
+  </si>
+  <si>
+    <t>CHURCH / SYNAGOGUE / PLACE OF WORSHIP</t>
+  </si>
+  <si>
+    <t>CHURCH/SYNAGOGUE/PLACE OF WORSHIP</t>
+  </si>
+  <si>
+    <t>CLEANING STORE</t>
+  </si>
+  <si>
+    <t>CLUB</t>
+  </si>
+  <si>
+    <t>COIN OPERATED MACHINE</t>
+  </si>
+  <si>
+    <t>COLLEGE / UNIVERSITY - GROUNDS</t>
+  </si>
+  <si>
+    <t>COLLEGE / UNIVERSITY - RESIDENCE HALL</t>
+  </si>
+  <si>
+    <t>COLLEGE/UNIVERSITY GROUNDS</t>
+  </si>
+  <si>
+    <t>COLLEGE/UNIVERSITY RESIDENCE HALL</t>
+  </si>
+  <si>
+    <t>COMMERCIAL / BUSINESS OFFICE</t>
+  </si>
+  <si>
+    <t>CONVENIENCE STORE</t>
+  </si>
+  <si>
+    <t>CREDIT UNION</t>
+  </si>
+  <si>
+    <t>CTA "L" PLATFORM</t>
+  </si>
+  <si>
+    <t>CTA "L" TRAIN</t>
+  </si>
+  <si>
+    <t>CTA BUS</t>
+  </si>
+  <si>
+    <t>CTA BUS STOP</t>
+  </si>
+  <si>
+    <t>CTA GARAGE / OTHER PROPERTY</t>
+  </si>
+  <si>
+    <t>CTA PARKING LOT / GARAGE / OTHER PROPERTY</t>
+  </si>
+  <si>
+    <t>CTA PLATFORM</t>
+  </si>
+  <si>
+    <t>CTA PROPERTY</t>
+  </si>
+  <si>
+    <t>CTA STATION</t>
+  </si>
+  <si>
+    <t>CTA SUBWAY STATION</t>
+  </si>
+  <si>
+    <t>CTA TRACKS - RIGHT OF WAY</t>
+  </si>
+  <si>
+    <t>CTA TRAIN</t>
+  </si>
+  <si>
+    <t>CURRENCY EXCHANGE</t>
+  </si>
+  <si>
+    <t>DAY CARE CENTER</t>
+  </si>
+  <si>
+    <t>DEPARTMENT STORE</t>
+  </si>
+  <si>
+    <t>DRIVEWAY</t>
+  </si>
+  <si>
+    <t>DRIVEWAY - RESIDENTIAL</t>
+  </si>
+  <si>
+    <t>DRUG STORE</t>
+  </si>
+  <si>
+    <t>ELEVATOR</t>
+  </si>
+  <si>
+    <t>FACTORY / MANUFACTURING BUILDING</t>
+  </si>
+  <si>
+    <t>FACTORY/MANUFACTURING BUILDING</t>
+  </si>
+  <si>
+    <t>FEDERAL BUILDING</t>
+  </si>
+  <si>
+    <t>FIRE STATION</t>
+  </si>
+  <si>
+    <t>FOREST PRESERVE</t>
+  </si>
+  <si>
+    <t>GANGWAY</t>
+  </si>
+  <si>
+    <t>GARAGE</t>
+  </si>
+  <si>
+    <t>GAS STATION</t>
+  </si>
+  <si>
+    <t>GAS STATION DRIVE/PROP.</t>
+  </si>
+  <si>
+    <t>GOVERNMENT BUILDING / PROPERTY</t>
+  </si>
+  <si>
+    <t>GOVERNMENT BUILDING/PROPERTY</t>
+  </si>
+  <si>
+    <t>GROCERY FOOD STORE</t>
+  </si>
+  <si>
+    <t>HALLWAY</t>
+  </si>
+  <si>
+    <t>HIGHWAY / EXPRESSWAY</t>
+  </si>
+  <si>
+    <t>HIGHWAY/EXPRESSWAY</t>
+  </si>
+  <si>
+    <t>HORSE STABLE</t>
+  </si>
+  <si>
+    <t>HOSPITAL</t>
+  </si>
+  <si>
+    <t>HOSPITAL BUILDING / GROUNDS</t>
+  </si>
+  <si>
+    <t>HOSPITAL BUILDING/GROUNDS</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t>HOTEL / MOTEL</t>
+  </si>
+  <si>
+    <t>HOTEL/MOTEL</t>
+  </si>
+  <si>
+    <t>HOUSE</t>
+  </si>
+  <si>
+    <t>JAIL / LOCK-UP FACILITY</t>
+  </si>
+  <si>
+    <t>KENNEL</t>
+  </si>
+  <si>
+    <t>LAKE</t>
+  </si>
+  <si>
+    <t>LAKEFRONT / WATERFRONT / RIVERBANK</t>
+  </si>
+  <si>
+    <t>LAKEFRONT/WATERFRONT/RIVERBANK</t>
+  </si>
+  <si>
+    <t>LIBRARY</t>
+  </si>
+  <si>
+    <t>LIQUOR STORE</t>
+  </si>
+  <si>
+    <t>MEDICAL / DENTAL OFFICE</t>
+  </si>
+  <si>
+    <t>MEDICAL/DENTAL OFFICE</t>
+  </si>
+  <si>
+    <t>MOTEL</t>
+  </si>
+  <si>
+    <t>MOVIE HOUSE / THEATER</t>
+  </si>
+  <si>
+    <t>MOVIE HOUSE/THEATER</t>
+  </si>
+  <si>
+    <t>NEWSSTAND</t>
+  </si>
+  <si>
+    <t>NURSING / RETIREMENT HOME</t>
+  </si>
+  <si>
+    <t>NURSING HOME</t>
+  </si>
+  <si>
+    <t>NURSING HOME/RETIREMENT HOME</t>
+  </si>
+  <si>
+    <t>OFFICE</t>
+  </si>
+  <si>
+    <t>OTHER (SPECIFY)</t>
+  </si>
+  <si>
+    <t>OTHER COMMERCIAL TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>OTHER RAILROAD PROP / TRAIN DEPOT</t>
+  </si>
+  <si>
+    <t>OTHER RAILROAD PROPERTY / TRAIN DEPOT</t>
+  </si>
+  <si>
+    <t>PARK PROPERTY</t>
+  </si>
+  <si>
+    <t>PARKING LOT</t>
+  </si>
+  <si>
+    <t>PARKING LOT / GARAGE (NON RESIDENTIAL)</t>
+  </si>
+  <si>
+    <t>PARKING LOT/GARAGE(NON.RESID.)</t>
+  </si>
+  <si>
+    <t>PAWN SHOP</t>
+  </si>
+  <si>
+    <t>POLICE FACILITY / VEHICLE PARKING LOT</t>
+  </si>
+  <si>
+    <t>POLICE FACILITY/VEH PARKING LOT</t>
+  </si>
+  <si>
+    <t>POOL ROOM</t>
+  </si>
+  <si>
+    <t>PORCH</t>
+  </si>
+  <si>
+    <t>RAILROAD PROPERTY</t>
+  </si>
+  <si>
+    <t>RESIDENCE</t>
+  </si>
+  <si>
+    <t>RESIDENCE - GARAGE</t>
+  </si>
+  <si>
+    <t>RESIDENCE - PORCH / HALLWAY</t>
+  </si>
+  <si>
+    <t>RESIDENCE - YARD (FRONT / BACK)</t>
+  </si>
+  <si>
+    <t>RESIDENCE PORCH/HALLWAY</t>
+  </si>
+  <si>
+    <t>RESIDENCE-GARAGE</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL YARD (FRONT/BACK)</t>
+  </si>
+  <si>
+    <t>RESTAURANT</t>
+  </si>
+  <si>
+    <t>RETAIL STORE</t>
+  </si>
+  <si>
+    <t>RIVER BANK</t>
+  </si>
+  <si>
+    <t>SAVINGS AND LOAN</t>
+  </si>
+  <si>
+    <t>SCHOOL - PRIVATE BUILDING</t>
+  </si>
+  <si>
+    <t>SCHOOL - PRIVATE GROUNDS</t>
+  </si>
+  <si>
+    <t>SCHOOL - PUBLIC BUILDING</t>
+  </si>
+  <si>
+    <t>SCHOOL - PUBLIC GROUNDS</t>
+  </si>
+  <si>
+    <t>SCHOOL YARD</t>
+  </si>
+  <si>
+    <t>SCHOOL, PRIVATE, BUILDING</t>
+  </si>
+  <si>
+    <t>SCHOOL, PRIVATE, GROUNDS</t>
+  </si>
+  <si>
+    <t>SCHOOL, PUBLIC, BUILDING</t>
+  </si>
+  <si>
+    <t>SCHOOL, PUBLIC, GROUNDS</t>
+  </si>
+  <si>
+    <t>SMALL RETAIL STORE</t>
+  </si>
+  <si>
+    <t>SPORTS ARENA / STADIUM</t>
+  </si>
+  <si>
+    <t>SPORTS ARENA/STADIUM</t>
+  </si>
+  <si>
+    <t>STAIRWELL</t>
+  </si>
+  <si>
+    <t>STREET</t>
+  </si>
+  <si>
+    <t>TAVERN</t>
+  </si>
+  <si>
+    <t>TAVERN / LIQUOR STORE</t>
+  </si>
+  <si>
+    <t>TAVERN/LIQUOR STORE</t>
+  </si>
+  <si>
+    <t>TAXICAB</t>
+  </si>
+  <si>
+    <t>TRAILER</t>
+  </si>
+  <si>
+    <t>TRUCK</t>
+  </si>
+  <si>
+    <t>VACANT LOT / LAND</t>
+  </si>
+  <si>
+    <t>VACANT LOT/LAND</t>
+  </si>
+  <si>
+    <t>VEHICLE - COMMERCIAL</t>
+  </si>
+  <si>
+    <t>VEHICLE - COMMERCIAL: ENTERTAINMENT / PARTY BUS</t>
+  </si>
+  <si>
+    <t>VEHICLE - COMMERCIAL: TROLLEY BUS</t>
+  </si>
+  <si>
+    <t>VEHICLE - DELIVERY TRUCK</t>
+  </si>
+  <si>
+    <t>VEHICLE - OTHER RIDE SHARE SERVICE (E.G., UBER, LYFT)</t>
+  </si>
+  <si>
+    <t>VEHICLE - OTHER RIDE SHARE SERVICE (LYFT, UBER, ETC.)</t>
+  </si>
+  <si>
+    <t>VEHICLE NON-COMMERCIAL</t>
+  </si>
+  <si>
+    <t>VEHICLE-COMMERCIAL</t>
+  </si>
+  <si>
+    <t>VEHICLE-COMMERCIAL - ENTERTAINMENT/PARTY BUS</t>
+  </si>
+  <si>
+    <t>VEHICLE-COMMERCIAL - TROLLEY BUS</t>
+  </si>
+  <si>
+    <t>VESTIBULE</t>
+  </si>
+  <si>
+    <t>WAREHOUSE</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Residence</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Automobile</t>
+  </si>
+  <si>
+    <t>Bar, Tavern or Club</t>
+  </si>
+  <si>
+    <t>Watercraft</t>
+  </si>
+  <si>
+    <t>Housing Authority</t>
+  </si>
+  <si>
+    <t>College or University</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>Place of Worship</t>
+  </si>
+  <si>
+    <t>Recreation Area</t>
+  </si>
+  <si>
+    <t>Parking Lot/Garage</t>
+  </si>
+  <si>
+    <t>Government Building or Property</t>
+  </si>
+  <si>
+    <t>Street or Highway</t>
+  </si>
+  <si>
+    <t>Medical Facility</t>
+  </si>
+  <si>
+    <t>Hotel or Motel</t>
+  </si>
+  <si>
+    <t>Jail or Prison</t>
+  </si>
+  <si>
+    <t>Other Transportation Facility</t>
+  </si>
+  <si>
+    <t>Police Facility</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Sports Facility</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Vacant Lot</t>
+  </si>
+  <si>
+    <t>case_when(chicago_crime$location_description == '</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,6 +2229,55 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF336699"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF336699"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF990000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCC6666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF669966"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF990000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFB0B0B0"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -341,7 +2306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -351,6 +2316,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,7 +2858,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -903,7 +2878,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
@@ -3160,7 +5135,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3180,7 +5155,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
@@ -3817,7 +5792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5255C8-1EE8-B14A-A718-69E98675F843}">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4116,4 +6091,5798 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A84A7EC-8003-0045-AF13-BD06B452C9AF}">
+  <dimension ref="A1:B387"/>
+  <sheetViews>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="11"/>
+      <c r="B60" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="11"/>
+      <c r="B61" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
+      <c r="B63" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
+      <c r="B67" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
+      <c r="B68" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
+      <c r="B69" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="11"/>
+      <c r="B70" s="10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
+      <c r="B71" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
+      <c r="B72" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
+      <c r="B73" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="11"/>
+      <c r="B79" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="11"/>
+      <c r="B83" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+      <c r="B85" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="11"/>
+      <c r="B86" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+      <c r="B87" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="11"/>
+      <c r="B88" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="11"/>
+      <c r="B89" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="11"/>
+      <c r="B90" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="11"/>
+      <c r="B91" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="11"/>
+      <c r="B92" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="11"/>
+      <c r="B96" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="11"/>
+      <c r="B97" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="11"/>
+      <c r="B98" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="11"/>
+      <c r="B99" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="11"/>
+      <c r="B100" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="11"/>
+      <c r="B101" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="11"/>
+      <c r="B102" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="11"/>
+      <c r="B103" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="11"/>
+      <c r="B104" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="11"/>
+      <c r="B108" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="11"/>
+      <c r="B109" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="11"/>
+      <c r="B110" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="11"/>
+      <c r="B114" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="11"/>
+      <c r="B115" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="11"/>
+      <c r="B116" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="11"/>
+      <c r="B117" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="11"/>
+      <c r="B118" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="11"/>
+      <c r="B122" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="11"/>
+      <c r="B129" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="11"/>
+      <c r="B130" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="11"/>
+      <c r="B131" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="11"/>
+      <c r="B132" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="11"/>
+      <c r="B133" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="11"/>
+      <c r="B134" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="11"/>
+      <c r="B135" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="11"/>
+      <c r="B136" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="11"/>
+      <c r="B137" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="11"/>
+      <c r="B138" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="11"/>
+      <c r="B139" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="11"/>
+      <c r="B140" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="11"/>
+      <c r="B141" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="11"/>
+      <c r="B142" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="11"/>
+      <c r="B143" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="11"/>
+      <c r="B144" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="11"/>
+      <c r="B145" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="11"/>
+      <c r="B146" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="11"/>
+      <c r="B147" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="11"/>
+      <c r="B148" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="11"/>
+      <c r="B149" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="11"/>
+      <c r="B150" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B152" s="16"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B153" s="16"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B155" s="16"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B156" s="16"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="11"/>
+      <c r="B160" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="11"/>
+      <c r="B161" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="11"/>
+      <c r="B162" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="11"/>
+      <c r="B166" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="11"/>
+      <c r="B167" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="11"/>
+      <c r="B168" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="11"/>
+      <c r="B169" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="11"/>
+      <c r="B170" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="11"/>
+      <c r="B171" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="11"/>
+      <c r="B172" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="11"/>
+      <c r="B173" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="11"/>
+      <c r="B174" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="11"/>
+      <c r="B175" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="11"/>
+      <c r="B176" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="11"/>
+      <c r="B177" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="11"/>
+      <c r="B178" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="11"/>
+      <c r="B182" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="11"/>
+      <c r="B183" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="11"/>
+      <c r="B184" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="11"/>
+      <c r="B185" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="11"/>
+      <c r="B186" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="11"/>
+      <c r="B187" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="11"/>
+      <c r="B188" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="11"/>
+      <c r="B189" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="11"/>
+      <c r="B190" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="11"/>
+      <c r="B191" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="11"/>
+      <c r="B192" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="11"/>
+      <c r="B193" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="11"/>
+      <c r="B194" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="11"/>
+      <c r="B195" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="11"/>
+      <c r="B196" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="11"/>
+      <c r="B200" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="11"/>
+      <c r="B201" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="11"/>
+      <c r="B202" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="11"/>
+      <c r="B203" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="11"/>
+      <c r="B204" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="11"/>
+      <c r="B205" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="11"/>
+      <c r="B206" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="11"/>
+      <c r="B207" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="11"/>
+      <c r="B208" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="11"/>
+      <c r="B209" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="11"/>
+      <c r="B210" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="11"/>
+      <c r="B211" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="11"/>
+      <c r="B212" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="11"/>
+      <c r="B213" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="11"/>
+      <c r="B214" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="11"/>
+      <c r="B215" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="11"/>
+      <c r="B216" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="11"/>
+      <c r="B220" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="11"/>
+      <c r="B221" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="11"/>
+      <c r="B222" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="11"/>
+      <c r="B223" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="11"/>
+      <c r="B224" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="11"/>
+      <c r="B225" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="11"/>
+      <c r="B226" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="11"/>
+      <c r="B227" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="11"/>
+      <c r="B228" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="11"/>
+      <c r="B229" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="11"/>
+      <c r="B230" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="11"/>
+      <c r="B231" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="11"/>
+      <c r="B232" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="11"/>
+      <c r="B233" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="11"/>
+      <c r="B234" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="11"/>
+      <c r="B235" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="11"/>
+      <c r="B236" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="11"/>
+      <c r="B237" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="11"/>
+      <c r="B238" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="11"/>
+      <c r="B239" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="11"/>
+      <c r="B240" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="11"/>
+      <c r="B241" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="11"/>
+      <c r="B242" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="11"/>
+      <c r="B243" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="11"/>
+      <c r="B244" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="11"/>
+      <c r="B245" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="11"/>
+      <c r="B246" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="11"/>
+      <c r="B247" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="11"/>
+      <c r="B248" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="11"/>
+      <c r="B249" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="11"/>
+      <c r="B250" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="11"/>
+      <c r="B251" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="11"/>
+      <c r="B252" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="11"/>
+      <c r="B253" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="11"/>
+      <c r="B254" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="11"/>
+      <c r="B255" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="11"/>
+      <c r="B256" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="11"/>
+      <c r="B257" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="11"/>
+      <c r="B261" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="11"/>
+      <c r="B262" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="11"/>
+      <c r="B263" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="11"/>
+      <c r="B264" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="11"/>
+      <c r="B265" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="11"/>
+      <c r="B266" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="11"/>
+      <c r="B267" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="11"/>
+      <c r="B268" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="11"/>
+      <c r="B269" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="11"/>
+      <c r="B270" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="11"/>
+      <c r="B271" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="11"/>
+      <c r="B272" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="11"/>
+      <c r="B273" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="11"/>
+      <c r="B274" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="11"/>
+      <c r="B275" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="11"/>
+      <c r="B276" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="11"/>
+      <c r="B277" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="11"/>
+      <c r="B278" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="11"/>
+      <c r="B279" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="11"/>
+      <c r="B280" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="11"/>
+      <c r="B281" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="11"/>
+      <c r="B282" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="11"/>
+      <c r="B283" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="11"/>
+      <c r="B284" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="11"/>
+      <c r="B285" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="11"/>
+      <c r="B286" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="11"/>
+      <c r="B287" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B290" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="11"/>
+      <c r="B291" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="11"/>
+      <c r="B292" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="11"/>
+      <c r="B293" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="11"/>
+      <c r="B294" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="11"/>
+      <c r="B298" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="11"/>
+      <c r="B299" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="11"/>
+      <c r="B300" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="11"/>
+      <c r="B304" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="11"/>
+      <c r="B305" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="11"/>
+      <c r="B306" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="11"/>
+      <c r="B307" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="11"/>
+      <c r="B308" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="11"/>
+      <c r="B309" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="11"/>
+      <c r="B310" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="11"/>
+      <c r="B311" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="11"/>
+      <c r="B312" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="11"/>
+      <c r="B313" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="11"/>
+      <c r="B317" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="11"/>
+      <c r="B318" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="11"/>
+      <c r="B319" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="11"/>
+      <c r="B320" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="11"/>
+      <c r="B321" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="11"/>
+      <c r="B322" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="11"/>
+      <c r="B323" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="11"/>
+      <c r="B324" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="11"/>
+      <c r="B325" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="11"/>
+      <c r="B326" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="11"/>
+      <c r="B327" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="11"/>
+      <c r="B328" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="11"/>
+      <c r="B329" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="11"/>
+      <c r="B330" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="11"/>
+      <c r="B331" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="11"/>
+      <c r="B332" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="11"/>
+      <c r="B333" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="11"/>
+      <c r="B334" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="11"/>
+      <c r="B335" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="11"/>
+      <c r="B336" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="11"/>
+      <c r="B337" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="11"/>
+      <c r="B338" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="11"/>
+      <c r="B339" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="11"/>
+      <c r="B340" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="11"/>
+      <c r="B341" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="11"/>
+      <c r="B342" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="11"/>
+      <c r="B343" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="11"/>
+      <c r="B344" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="11"/>
+      <c r="B345" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="11"/>
+      <c r="B346" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="11"/>
+      <c r="B347" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="11"/>
+      <c r="B348" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="11"/>
+      <c r="B349" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="11"/>
+      <c r="B350" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="11"/>
+      <c r="B351" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="11"/>
+      <c r="B352" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="11"/>
+      <c r="B353" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="11"/>
+      <c r="B354" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="11"/>
+      <c r="B355" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="11"/>
+      <c r="B356" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="11"/>
+      <c r="B357" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="11"/>
+      <c r="B358" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="11"/>
+      <c r="B359" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="11"/>
+      <c r="B360" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="11"/>
+      <c r="B361" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="11"/>
+      <c r="B362" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="11"/>
+      <c r="B363" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="11"/>
+      <c r="B364" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="11"/>
+      <c r="B365" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="11"/>
+      <c r="B366" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="11"/>
+      <c r="B367" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="11"/>
+      <c r="B368" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="11"/>
+      <c r="B369" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="11"/>
+      <c r="B370" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="11"/>
+      <c r="B371" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="11"/>
+      <c r="B372" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="11"/>
+      <c r="B373" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="11"/>
+      <c r="B374" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="11"/>
+      <c r="B375" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="11"/>
+      <c r="B376" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="11"/>
+      <c r="B377" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="11"/>
+      <c r="B378" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="11"/>
+      <c r="B379" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="11"/>
+      <c r="B380" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="11"/>
+      <c r="B381" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="11"/>
+      <c r="B382" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="11"/>
+      <c r="B383" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="11"/>
+      <c r="B384" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="11"/>
+      <c r="B385" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="11"/>
+      <c r="B386" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="11"/>
+      <c r="B387" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFE5826-9C8D-BD43-AF0B-A1E294847A4B}">
+  <dimension ref="A1:F174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C166" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F174"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>420</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F3" t="str">
+        <f>C3&amp;D3&amp;"' ~ '"&amp;E3&amp;"',"</f>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT BUILDING NON-TERMINAL - NON-SECURE AREA' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>217</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E4" t="s">
+        <v>689</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F67" si="0">C4&amp;D4&amp;"' ~ '"&amp;E4&amp;"',"</f>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT BUILDING NON-TERMINAL - SECURE AREA' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>276</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT EXTERIOR - NON-SECURE AREA' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>148</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E6" t="s">
+        <v>689</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT EXTERIOR - SECURE AREA' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>393</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" t="s">
+        <v>689</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT PARKING LOT' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>577</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E8" t="s">
+        <v>689</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT TERMINAL LOWER LEVEL - NON-SECURE AREA' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>247</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E9" t="s">
+        <v>689</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT TERMINAL LOWER LEVEL - SECURE AREA' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E10" t="s">
+        <v>689</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT TERMINAL MEZZANINE - NON-SECURE AREA' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>388</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E11" t="s">
+        <v>689</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT TERMINAL UPPER LEVEL - NON-SECURE AREA' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>802</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E12" t="s">
+        <v>689</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT TERMINAL UPPER LEVEL - SECURE AREA' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E13" t="s">
+        <v>689</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT TRANSPORTATION SYSTEM (ATS)' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>83</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E14" t="s">
+        <v>689</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT VENDING ESTABLISHMENT' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>121</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E15" t="s">
+        <v>689</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AIRPORT/AIRCRAFT' ~ 'Airport',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>96</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E16" t="s">
+        <v>690</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'ANIMAL HOSPITAL' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>151384</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E17" t="s">
+        <v>691</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'APARTMENT' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>418</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E18" t="s">
+        <v>690</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'APPLIANCE STORE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1190</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E19" t="s">
+        <v>690</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'ATHLETIC CLUB' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>746</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E20" t="s">
+        <v>692</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'ATM (AUTOMATIC TELLER MACHINE)' ~ 'Bank',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>224</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E21" t="s">
+        <v>693</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AUTO' ~ 'Automobile',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>856</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E22" t="s">
+        <v>690</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'AUTO / BOAT / RV DEALERSHIP' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>3072</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E23" t="s">
+        <v>692</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'BANK' ~ 'Bank',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E24" t="s">
+        <v>690</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'BANQUET HALL' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>5267</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E25" t="s">
+        <v>694</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'BAR OR TAVERN' ~ 'Bar, Tavern or Club',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E26" t="s">
+        <v>690</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'BARBER SHOP/BEAUTY SALON' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>675</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E27" t="s">
+        <v>690</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'BARBERSHOP' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E28" t="s">
+        <v>691</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'BASEMENT' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>78</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E29" t="s">
+        <v>695</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'BOAT / WATERCRAFT' ~ 'Watercraft',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E30" t="s">
+        <v>695</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'BOAT/WATERCRAFT' ~ 'Watercraft',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>76</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E31" t="s">
+        <v>690</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'BOWLING ALLEY' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>467</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E32" t="s">
+        <v>690</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CAR WASH' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>2475</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E33" t="s">
+        <v>696</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHA APARTMENT' ~ 'Housing Authority',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E34" t="s">
+        <v>696</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHA ELEVATOR' ~ 'Housing Authority',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E35" t="s">
+        <v>696</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHA GROUNDS' ~ 'Housing Authority',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E36" t="s">
+        <v>696</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHA HALLWAY' ~ 'Housing Authority',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>367</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E37" t="s">
+        <v>696</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHA HALLWAY / STAIRWELL / ELEVATOR' ~ 'Housing Authority',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>191</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E38" t="s">
+        <v>696</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHA HALLWAY/STAIRWELL/ELEVATOR' ~ 'Housing Authority',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E39" t="s">
+        <v>696</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHA LOBBY' ~ 'Housing Authority',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>12</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E40" t="s">
+        <v>696</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHA PARKING LOT' ~ 'Housing Authority',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>1135</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E41" t="s">
+        <v>696</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHA PARKING LOT / GROUNDS' ~ 'Housing Authority',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>610</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E42" t="s">
+        <v>696</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHA PARKING LOT/GROUNDS' ~ 'Housing Authority',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E43" t="s">
+        <v>696</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHA PLAY LOT' ~ 'Housing Authority',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>982</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E44" t="s">
+        <v>699</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHURCH / SYNAGOGUE / PLACE OF WORSHIP' ~ 'Place of Worship',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>541</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E45" t="s">
+        <v>699</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CHURCH/SYNAGOGUE/PLACE OF WORSHIP' ~ 'Place of Worship',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>337</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E46" t="s">
+        <v>690</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CLEANING STORE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E47" t="s">
+        <v>694</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CLUB' ~ 'Bar, Tavern or Club',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>78</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'COIN OPERATED MACHINE' ~ 'Other',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>158</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E49" t="s">
+        <v>697</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'COLLEGE / UNIVERSITY - GROUNDS' ~ 'College or University',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>59</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E50" t="s">
+        <v>697</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'COLLEGE / UNIVERSITY - RESIDENCE HALL' ~ 'College or University',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>148</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E51" t="s">
+        <v>697</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'COLLEGE/UNIVERSITY GROUNDS' ~ 'College or University',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>42</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E52" t="s">
+        <v>697</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'COLLEGE/UNIVERSITY RESIDENCE HALL' ~ 'College or University',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>8910</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E53" t="s">
+        <v>690</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'COMMERCIAL / BUSINESS OFFICE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>6344</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E54" t="s">
+        <v>690</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CONVENIENCE STORE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>61</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E55" t="s">
+        <v>692</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CREDIT UNION' ~ 'Bank',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E56" t="s">
+        <v>698</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA "L" PLATFORM' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E57" t="s">
+        <v>698</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA "L" TRAIN' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>3022</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E58" t="s">
+        <v>698</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA BUS' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>1534</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E59" t="s">
+        <v>698</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA BUS STOP' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>303</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E60" t="s">
+        <v>698</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA GARAGE / OTHER PROPERTY' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>380</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E61" t="s">
+        <v>698</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA PARKING LOT / GARAGE / OTHER PROPERTY' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>2656</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E62" t="s">
+        <v>698</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA PLATFORM' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>5</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E63" t="s">
+        <v>698</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA PROPERTY' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>2379</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E64" t="s">
+        <v>698</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA STATION' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E65" t="s">
+        <v>698</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA SUBWAY STATION' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>69</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E66" t="s">
+        <v>698</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA TRACKS - RIGHT OF WAY' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>5512</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E67" t="s">
+        <v>698</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="0"/>
+        <v>case_when(chicago_crime$location_description == 'CTA TRAIN' ~ 'Transit',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>985</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E68" t="s">
+        <v>690</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" ref="F68:F131" si="1">C68&amp;D68&amp;"' ~ '"&amp;E68&amp;"',"</f>
+        <v>case_when(chicago_crime$location_description == 'CURRENCY EXCHANGE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>566</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E69" t="s">
+        <v>690</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'DAY CARE CENTER' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>12395</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E70" t="s">
+        <v>690</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'DEPARTMENT STORE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'DRIVEWAY' ~ 'Other',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>2523</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E72" t="s">
+        <v>691</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'DRIVEWAY - RESIDENTIAL' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>4317</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E73" t="s">
+        <v>690</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'DRUG STORE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>1</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'ELEVATOR' ~ 'Other',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>329</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E75" t="s">
+        <v>690</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'FACTORY / MANUFACTURING BUILDING' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>133</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E76" t="s">
+        <v>690</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'FACTORY/MANUFACTURING BUILDING' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>141</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E77" t="s">
+        <v>702</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'FEDERAL BUILDING' ~ 'Government Building or Property',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>190</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E78" t="s">
+        <v>702</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'FIRE STATION' ~ 'Government Building or Property',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>52</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E79" t="s">
+        <v>700</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'FOREST PRESERVE' ~ 'Recreation Area',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>5</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E80" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'GANGWAY' ~ 'Other',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>9</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E81" t="s">
+        <v>701</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'GARAGE' ~ 'Parking Lot/Garage',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>12623</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E82" t="s">
+        <v>690</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'GAS STATION' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>15</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E83" t="s">
+        <v>690</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'GAS STATION DRIVE/PROP.' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>975</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E84" t="s">
+        <v>702</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'GOVERNMENT BUILDING / PROPERTY' ~ 'Government Building or Property',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>548</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E85" t="s">
+        <v>702</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'GOVERNMENT BUILDING/PROPERTY' ~ 'Government Building or Property',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>9704</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E86" t="s">
+        <v>690</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'GROCERY FOOD STORE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>13</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'HALLWAY' ~ 'Other',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>145</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E88" t="s">
+        <v>703</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'HIGHWAY / EXPRESSWAY' ~ 'Street or Highway',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>67</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E89" t="s">
+        <v>703</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'HIGHWAY/EXPRESSWAY' ~ 'Street or Highway',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>1</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'HORSE STABLE' ~ 'Other',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>3</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E91" t="s">
+        <v>704</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'HOSPITAL' ~ 'Medical Facility',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>3107</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E92" t="s">
+        <v>704</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'HOSPITAL BUILDING / GROUNDS' ~ 'Medical Facility',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>1568</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E93" t="s">
+        <v>704</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'HOSPITAL BUILDING/GROUNDS' ~ 'Medical Facility',</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>7</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E94" t="s">
+        <v>705</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'HOTEL' ~ 'Hotel or Motel',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>2996</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E95" t="s">
+        <v>705</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'HOTEL / MOTEL' ~ 'Hotel or Motel',</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>1587</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E96" t="s">
+        <v>705</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'HOTEL/MOTEL' ~ 'Hotel or Motel',</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>100</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E97" t="s">
+        <v>691</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'HOUSE' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>146</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E98" t="s">
+        <v>706</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'JAIL / LOCK-UP FACILITY' ~ 'Jail or Prison',</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>14</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E99" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'KENNEL' ~ 'Other',</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>1</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E100" t="s">
+        <v>700</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'LAKE' ~ 'Recreation Area',</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>185</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E101" t="s">
+        <v>700</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'LAKEFRONT / WATERFRONT / RIVERBANK' ~ 'Recreation Area',</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>66</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E102" t="s">
+        <v>700</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'LAKEFRONT/WATERFRONT/RIVERBANK' ~ 'Recreation Area',</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>617</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E103" t="s">
+        <v>702</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'LIBRARY' ~ 'Government Building or Property',</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>5</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E104" t="s">
+        <v>690</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'LIQUOR STORE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>757</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E105" t="s">
+        <v>704</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'MEDICAL / DENTAL OFFICE' ~ 'Medical Facility',</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>291</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E106" t="s">
+        <v>704</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'MEDICAL/DENTAL OFFICE' ~ 'Medical Facility',</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>2</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E107" t="s">
+        <v>705</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'MOTEL' ~ 'Hotel or Motel',</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>112</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E108" t="s">
+        <v>690</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'MOVIE HOUSE / THEATER' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>143</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E109" t="s">
+        <v>690</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'MOVIE HOUSE/THEATER' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>14</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E110" t="s">
+        <v>690</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'NEWSSTAND' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>1876</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E111" t="s">
+        <v>704</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'NURSING / RETIREMENT HOME' ~ 'Medical Facility',</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>1</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E112" t="s">
+        <v>704</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'NURSING HOME' ~ 'Medical Facility',</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>1087</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E113" t="s">
+        <v>704</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'NURSING HOME/RETIREMENT HOME' ~ 'Medical Facility',</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>1</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E114" t="s">
+        <v>690</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'OFFICE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>10882</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E115" t="s">
+        <v>50</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'OTHER (SPECIFY)' ~ 'Other',</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>383</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E116" t="s">
+        <v>707</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'OTHER COMMERCIAL TRANSPORTATION' ~ 'Other Transportation Facility',</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>145</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E117" t="s">
+        <v>707</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'OTHER RAILROAD PROP / TRAIN DEPOT' ~ 'Other Transportation Facility',</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>275</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E118" t="s">
+        <v>707</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'OTHER RAILROAD PROPERTY / TRAIN DEPOT' ~ 'Other Transportation Facility',</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>5783</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E119" t="s">
+        <v>700</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'PARK PROPERTY' ~ 'Recreation Area',</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>67</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E120" t="s">
+        <v>701</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'PARKING LOT' ~ 'Parking Lot/Garage',</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>18262</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E121" t="s">
+        <v>701</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'PARKING LOT / GARAGE (NON RESIDENTIAL)' ~ 'Parking Lot/Garage',</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>8392</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E122" t="s">
+        <v>701</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'PARKING LOT/GARAGE(NON.RESID.)' ~ 'Parking Lot/Garage',</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>152</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E123" t="s">
+        <v>690</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'PAWN SHOP' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>1968</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E124" t="s">
+        <v>708</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'POLICE FACILITY / VEHICLE PARKING LOT' ~ 'Police Facility',</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>863</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E125" t="s">
+        <v>708</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'POLICE FACILITY/VEH PARKING LOT' ~ 'Police Facility',</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>104</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E126" t="s">
+        <v>700</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'POOL ROOM' ~ 'Recreation Area',</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>81</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E127" t="s">
+        <v>691</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'PORCH' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>2</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E128" t="s">
+        <v>707</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'RAILROAD PROPERTY' ~ 'Other Transportation Facility',</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>137718</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E129" t="s">
+        <v>691</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'RESIDENCE' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>7063</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E130" t="s">
+        <v>691</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'RESIDENCE - GARAGE' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>8786</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E131" t="s">
+        <v>691</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" si="1"/>
+        <v>case_when(chicago_crime$location_description == 'RESIDENCE - PORCH / HALLWAY' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>7890</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E132" t="s">
+        <v>691</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" ref="F132:F174" si="2">C132&amp;D132&amp;"' ~ '"&amp;E132&amp;"',"</f>
+        <v>case_when(chicago_crime$location_description == 'RESIDENCE - YARD (FRONT / BACK)' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>5573</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E133" t="s">
+        <v>691</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'RESIDENCE PORCH/HALLWAY' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>3564</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E134" t="s">
+        <v>691</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'RESIDENCE-GARAGE' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>5173</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E135" t="s">
+        <v>691</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'RESIDENTIAL YARD (FRONT/BACK)' ~ 'Residence',</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>18038</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E136" t="s">
+        <v>690</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'RESTAURANT' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>24</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E137" t="s">
+        <v>690</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'RETAIL STORE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>1</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E138" t="s">
+        <v>700</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'RIVER BANK' ~ 'Recreation Area',</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>31</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E139" t="s">
+        <v>692</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SAVINGS AND LOAN' ~ 'Bank',</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>492</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E140" t="s">
+        <v>709</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SCHOOL - PRIVATE BUILDING' ~ 'School',</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>497</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E141" t="s">
+        <v>709</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SCHOOL - PRIVATE GROUNDS' ~ 'School',</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>2708</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E142" t="s">
+        <v>709</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SCHOOL - PUBLIC BUILDING' ~ 'School',</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>2035</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E143" t="s">
+        <v>709</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SCHOOL - PUBLIC GROUNDS' ~ 'School',</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>2</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E144" t="s">
+        <v>709</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SCHOOL YARD' ~ 'School',</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>700</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E145" t="s">
+        <v>709</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SCHOOL, PRIVATE, BUILDING' ~ 'School',</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>200</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E146" t="s">
+        <v>709</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SCHOOL, PRIVATE, GROUNDS' ~ 'School',</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>3618</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E147" t="s">
+        <v>709</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SCHOOL, PUBLIC, BUILDING' ~ 'School',</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>1135</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E148" t="s">
+        <v>709</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SCHOOL, PUBLIC, GROUNDS' ~ 'School',</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>23430</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E149" t="s">
+        <v>690</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SMALL RETAIL STORE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>287</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E150" t="s">
+        <v>710</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SPORTS ARENA / STADIUM' ~ 'Sports Facility',</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>253</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E151" t="s">
+        <v>710</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'SPORTS ARENA/STADIUM' ~ 'Sports Facility',</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>3</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E152" t="s">
+        <v>50</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'STAIRWELL' ~ 'Other',</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>210302</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E153" t="s">
+        <v>703</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'STREET' ~ 'Street or Highway',</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>1</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E154" t="s">
+        <v>694</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'TAVERN' ~ 'Bar, Tavern or Club',</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>1196</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E155" t="s">
+        <v>694</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'TAVERN / LIQUOR STORE' ~ 'Bar, Tavern or Club',</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>593</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E156" t="s">
+        <v>694</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'TAVERN/LIQUOR STORE' ~ 'Bar, Tavern or Club',</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>441</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E157" t="s">
+        <v>711</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'TAXICAB' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>1</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E158" t="s">
+        <v>711</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'TRAILER' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>1</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E159" t="s">
+        <v>711</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'TRUCK' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>1613</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E160" t="s">
+        <v>712</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VACANT LOT / LAND' ~ 'Vacant Lot',</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>701</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E161" t="s">
+        <v>712</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VACANT LOT/LAND' ~ 'Vacant Lot',</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>454</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E162" t="s">
+        <v>711</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VEHICLE - COMMERCIAL' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>11</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E163" t="s">
+        <v>711</v>
+      </c>
+      <c r="F163" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VEHICLE - COMMERCIAL: ENTERTAINMENT / PARTY BUS' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>9</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E164" t="s">
+        <v>711</v>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VEHICLE - COMMERCIAL: TROLLEY BUS' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>174</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E165" t="s">
+        <v>711</v>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VEHICLE - DELIVERY TRUCK' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>248</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E166" t="s">
+        <v>711</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VEHICLE - OTHER RIDE SHARE SERVICE (E.G., UBER, LYFT)' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>289</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="E167" t="s">
+        <v>711</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VEHICLE - OTHER RIDE SHARE SERVICE (LYFT, UBER, ETC.)' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>13140</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E168" t="s">
+        <v>711</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VEHICLE NON-COMMERCIAL' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>223</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E169" t="s">
+        <v>711</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VEHICLE-COMMERCIAL' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>2</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E170" t="s">
+        <v>711</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VEHICLE-COMMERCIAL - ENTERTAINMENT/PARTY BUS' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>4</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E171" t="s">
+        <v>711</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VEHICLE-COMMERCIAL - TROLLEY BUS' ~ 'Vehicle',</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>8</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E172" t="s">
+        <v>50</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'VESTIBULE' ~ 'Other',</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>791</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E173" t="s">
+        <v>690</v>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'WAREHOUSE' ~ 'Business',</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>3876</v>
+      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="E174" t="s">
+        <v>50</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="2"/>
+        <v>case_when(chicago_crime$location_description == 'NA' ~ 'Other',</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/source/reference/chicago_category_notes_analysis.xlsx
+++ b/data/source/reference/chicago_category_notes_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jarvis/R/safetytracker_chicago/data/source/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED96298-1EB4-9B46-A89D-F32CFF48F577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A51FB-B22C-5249-B468-96ACE31F4620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41660" yWindow="4300" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{2D38F7AF-362E-284B-8B20-3A7554E5C55D}"/>
+    <workbookView xWindow="27680" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{2D38F7AF-362E-284B-8B20-3A7554E5C55D}"/>
   </bookViews>
   <sheets>
     <sheet name="rape cats" sheetId="1" r:id="rId1"/>
@@ -2181,7 +2181,7 @@
     <t>Vacant Lot</t>
   </si>
   <si>
-    <t>case_when(chicago_crime$location_description == '</t>
+    <t>(chicago_crime$location_description == '</t>
   </si>
 </sst>
 </file>
@@ -8588,7 +8588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFE5826-9C8D-BD43-AF0B-A1E294847A4B}">
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C166" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F174"/>
     </sheetView>
   </sheetViews>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="F3" t="str">
         <f>C3&amp;D3&amp;"' ~ '"&amp;E3&amp;"',"</f>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT BUILDING NON-TERMINAL - NON-SECURE AREA' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT BUILDING NON-TERMINAL - NON-SECURE AREA' ~ 'Airport',</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F67" si="0">C4&amp;D4&amp;"' ~ '"&amp;E4&amp;"',"</f>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT BUILDING NON-TERMINAL - SECURE AREA' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT BUILDING NON-TERMINAL - SECURE AREA' ~ 'Airport',</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT EXTERIOR - NON-SECURE AREA' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT EXTERIOR - NON-SECURE AREA' ~ 'Airport',</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT EXTERIOR - SECURE AREA' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT EXTERIOR - SECURE AREA' ~ 'Airport',</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT PARKING LOT' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT PARKING LOT' ~ 'Airport',</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -8725,7 +8725,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT TERMINAL LOWER LEVEL - NON-SECURE AREA' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT TERMINAL LOWER LEVEL - NON-SECURE AREA' ~ 'Airport',</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT TERMINAL LOWER LEVEL - SECURE AREA' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT TERMINAL LOWER LEVEL - SECURE AREA' ~ 'Airport',</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT TERMINAL MEZZANINE - NON-SECURE AREA' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT TERMINAL MEZZANINE - NON-SECURE AREA' ~ 'Airport',</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT TERMINAL UPPER LEVEL - NON-SECURE AREA' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT TERMINAL UPPER LEVEL - NON-SECURE AREA' ~ 'Airport',</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT TERMINAL UPPER LEVEL - SECURE AREA' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT TERMINAL UPPER LEVEL - SECURE AREA' ~ 'Airport',</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT TRANSPORTATION SYSTEM (ATS)' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT TRANSPORTATION SYSTEM (ATS)' ~ 'Airport',</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT VENDING ESTABLISHMENT' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT VENDING ESTABLISHMENT' ~ 'Airport',</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AIRPORT/AIRCRAFT' ~ 'Airport',</v>
+        <v>(chicago_crime$location_description == 'AIRPORT/AIRCRAFT' ~ 'Airport',</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'ANIMAL HOSPITAL' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'ANIMAL HOSPITAL' ~ 'Business',</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'APARTMENT' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'APARTMENT' ~ 'Residence',</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'APPLIANCE STORE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'APPLIANCE STORE' ~ 'Business',</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -8934,7 +8934,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'ATHLETIC CLUB' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'ATHLETIC CLUB' ~ 'Business',</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'ATM (AUTOMATIC TELLER MACHINE)' ~ 'Bank',</v>
+        <v>(chicago_crime$location_description == 'ATM (AUTOMATIC TELLER MACHINE)' ~ 'Bank',</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -8972,7 +8972,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AUTO' ~ 'Automobile',</v>
+        <v>(chicago_crime$location_description == 'AUTO' ~ 'Automobile',</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'AUTO / BOAT / RV DEALERSHIP' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'AUTO / BOAT / RV DEALERSHIP' ~ 'Business',</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'BANK' ~ 'Bank',</v>
+        <v>(chicago_crime$location_description == 'BANK' ~ 'Bank',</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'BANQUET HALL' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'BANQUET HALL' ~ 'Business',</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'BAR OR TAVERN' ~ 'Bar, Tavern or Club',</v>
+        <v>(chicago_crime$location_description == 'BAR OR TAVERN' ~ 'Bar, Tavern or Club',</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'BARBER SHOP/BEAUTY SALON' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'BARBER SHOP/BEAUTY SALON' ~ 'Business',</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'BARBERSHOP' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'BARBERSHOP' ~ 'Business',</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'BASEMENT' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'BASEMENT' ~ 'Residence',</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'BOAT / WATERCRAFT' ~ 'Watercraft',</v>
+        <v>(chicago_crime$location_description == 'BOAT / WATERCRAFT' ~ 'Watercraft',</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'BOAT/WATERCRAFT' ~ 'Watercraft',</v>
+        <v>(chicago_crime$location_description == 'BOAT/WATERCRAFT' ~ 'Watercraft',</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'BOWLING ALLEY' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'BOWLING ALLEY' ~ 'Business',</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CAR WASH' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'CAR WASH' ~ 'Business',</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHA APARTMENT' ~ 'Housing Authority',</v>
+        <v>(chicago_crime$location_description == 'CHA APARTMENT' ~ 'Housing Authority',</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHA ELEVATOR' ~ 'Housing Authority',</v>
+        <v>(chicago_crime$location_description == 'CHA ELEVATOR' ~ 'Housing Authority',</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -9238,7 +9238,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHA GROUNDS' ~ 'Housing Authority',</v>
+        <v>(chicago_crime$location_description == 'CHA GROUNDS' ~ 'Housing Authority',</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHA HALLWAY' ~ 'Housing Authority',</v>
+        <v>(chicago_crime$location_description == 'CHA HALLWAY' ~ 'Housing Authority',</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHA HALLWAY / STAIRWELL / ELEVATOR' ~ 'Housing Authority',</v>
+        <v>(chicago_crime$location_description == 'CHA HALLWAY / STAIRWELL / ELEVATOR' ~ 'Housing Authority',</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -9295,7 +9295,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHA HALLWAY/STAIRWELL/ELEVATOR' ~ 'Housing Authority',</v>
+        <v>(chicago_crime$location_description == 'CHA HALLWAY/STAIRWELL/ELEVATOR' ~ 'Housing Authority',</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHA LOBBY' ~ 'Housing Authority',</v>
+        <v>(chicago_crime$location_description == 'CHA LOBBY' ~ 'Housing Authority',</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHA PARKING LOT' ~ 'Housing Authority',</v>
+        <v>(chicago_crime$location_description == 'CHA PARKING LOT' ~ 'Housing Authority',</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHA PARKING LOT / GROUNDS' ~ 'Housing Authority',</v>
+        <v>(chicago_crime$location_description == 'CHA PARKING LOT / GROUNDS' ~ 'Housing Authority',</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHA PARKING LOT/GROUNDS' ~ 'Housing Authority',</v>
+        <v>(chicago_crime$location_description == 'CHA PARKING LOT/GROUNDS' ~ 'Housing Authority',</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHA PLAY LOT' ~ 'Housing Authority',</v>
+        <v>(chicago_crime$location_description == 'CHA PLAY LOT' ~ 'Housing Authority',</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -9409,7 +9409,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHURCH / SYNAGOGUE / PLACE OF WORSHIP' ~ 'Place of Worship',</v>
+        <v>(chicago_crime$location_description == 'CHURCH / SYNAGOGUE / PLACE OF WORSHIP' ~ 'Place of Worship',</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CHURCH/SYNAGOGUE/PLACE OF WORSHIP' ~ 'Place of Worship',</v>
+        <v>(chicago_crime$location_description == 'CHURCH/SYNAGOGUE/PLACE OF WORSHIP' ~ 'Place of Worship',</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CLEANING STORE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'CLEANING STORE' ~ 'Business',</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CLUB' ~ 'Bar, Tavern or Club',</v>
+        <v>(chicago_crime$location_description == 'CLUB' ~ 'Bar, Tavern or Club',</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'COIN OPERATED MACHINE' ~ 'Other',</v>
+        <v>(chicago_crime$location_description == 'COIN OPERATED MACHINE' ~ 'Other',</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -9504,7 +9504,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'COLLEGE / UNIVERSITY - GROUNDS' ~ 'College or University',</v>
+        <v>(chicago_crime$location_description == 'COLLEGE / UNIVERSITY - GROUNDS' ~ 'College or University',</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'COLLEGE / UNIVERSITY - RESIDENCE HALL' ~ 'College or University',</v>
+        <v>(chicago_crime$location_description == 'COLLEGE / UNIVERSITY - RESIDENCE HALL' ~ 'College or University',</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'COLLEGE/UNIVERSITY GROUNDS' ~ 'College or University',</v>
+        <v>(chicago_crime$location_description == 'COLLEGE/UNIVERSITY GROUNDS' ~ 'College or University',</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'COLLEGE/UNIVERSITY RESIDENCE HALL' ~ 'College or University',</v>
+        <v>(chicago_crime$location_description == 'COLLEGE/UNIVERSITY RESIDENCE HALL' ~ 'College or University',</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'COMMERCIAL / BUSINESS OFFICE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'COMMERCIAL / BUSINESS OFFICE' ~ 'Business',</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CONVENIENCE STORE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'CONVENIENCE STORE' ~ 'Business',</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CREDIT UNION' ~ 'Bank',</v>
+        <v>(chicago_crime$location_description == 'CREDIT UNION' ~ 'Bank',</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA "L" PLATFORM' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA "L" PLATFORM' ~ 'Transit',</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA "L" TRAIN' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA "L" TRAIN' ~ 'Transit',</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA BUS' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA BUS' ~ 'Transit',</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA BUS STOP' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA BUS STOP' ~ 'Transit',</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA GARAGE / OTHER PROPERTY' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA GARAGE / OTHER PROPERTY' ~ 'Transit',</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA PARKING LOT / GARAGE / OTHER PROPERTY' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA PARKING LOT / GARAGE / OTHER PROPERTY' ~ 'Transit',</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA PLATFORM' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA PLATFORM' ~ 'Transit',</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -9770,7 +9770,7 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA PROPERTY' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA PROPERTY' ~ 'Transit',</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA STATION' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA STATION' ~ 'Transit',</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA SUBWAY STATION' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA SUBWAY STATION' ~ 'Transit',</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA TRACKS - RIGHT OF WAY' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA TRACKS - RIGHT OF WAY' ~ 'Transit',</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
-        <v>case_when(chicago_crime$location_description == 'CTA TRAIN' ~ 'Transit',</v>
+        <v>(chicago_crime$location_description == 'CTA TRAIN' ~ 'Transit',</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F131" si="1">C68&amp;D68&amp;"' ~ '"&amp;E68&amp;"',"</f>
-        <v>case_when(chicago_crime$location_description == 'CURRENCY EXCHANGE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'CURRENCY EXCHANGE' ~ 'Business',</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'DAY CARE CENTER' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'DAY CARE CENTER' ~ 'Business',</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'DEPARTMENT STORE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'DEPARTMENT STORE' ~ 'Business',</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -9922,7 +9922,7 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'DRIVEWAY' ~ 'Other',</v>
+        <v>(chicago_crime$location_description == 'DRIVEWAY' ~ 'Other',</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'DRIVEWAY - RESIDENTIAL' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'DRIVEWAY - RESIDENTIAL' ~ 'Residence',</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'DRUG STORE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'DRUG STORE' ~ 'Business',</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'ELEVATOR' ~ 'Other',</v>
+        <v>(chicago_crime$location_description == 'ELEVATOR' ~ 'Other',</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'FACTORY / MANUFACTURING BUILDING' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'FACTORY / MANUFACTURING BUILDING' ~ 'Business',</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'FACTORY/MANUFACTURING BUILDING' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'FACTORY/MANUFACTURING BUILDING' ~ 'Business',</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'FEDERAL BUILDING' ~ 'Government Building or Property',</v>
+        <v>(chicago_crime$location_description == 'FEDERAL BUILDING' ~ 'Government Building or Property',</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'FIRE STATION' ~ 'Government Building or Property',</v>
+        <v>(chicago_crime$location_description == 'FIRE STATION' ~ 'Government Building or Property',</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -10074,7 +10074,7 @@
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'FOREST PRESERVE' ~ 'Recreation Area',</v>
+        <v>(chicago_crime$location_description == 'FOREST PRESERVE' ~ 'Recreation Area',</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'GANGWAY' ~ 'Other',</v>
+        <v>(chicago_crime$location_description == 'GANGWAY' ~ 'Other',</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'GARAGE' ~ 'Parking Lot/Garage',</v>
+        <v>(chicago_crime$location_description == 'GARAGE' ~ 'Parking Lot/Garage',</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'GAS STATION' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'GAS STATION' ~ 'Business',</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'GAS STATION DRIVE/PROP.' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'GAS STATION DRIVE/PROP.' ~ 'Business',</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'GOVERNMENT BUILDING / PROPERTY' ~ 'Government Building or Property',</v>
+        <v>(chicago_crime$location_description == 'GOVERNMENT BUILDING / PROPERTY' ~ 'Government Building or Property',</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -10188,7 +10188,7 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'GOVERNMENT BUILDING/PROPERTY' ~ 'Government Building or Property',</v>
+        <v>(chicago_crime$location_description == 'GOVERNMENT BUILDING/PROPERTY' ~ 'Government Building or Property',</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'GROCERY FOOD STORE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'GROCERY FOOD STORE' ~ 'Business',</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'HALLWAY' ~ 'Other',</v>
+        <v>(chicago_crime$location_description == 'HALLWAY' ~ 'Other',</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'HIGHWAY / EXPRESSWAY' ~ 'Street or Highway',</v>
+        <v>(chicago_crime$location_description == 'HIGHWAY / EXPRESSWAY' ~ 'Street or Highway',</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'HIGHWAY/EXPRESSWAY' ~ 'Street or Highway',</v>
+        <v>(chicago_crime$location_description == 'HIGHWAY/EXPRESSWAY' ~ 'Street or Highway',</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'HORSE STABLE' ~ 'Other',</v>
+        <v>(chicago_crime$location_description == 'HORSE STABLE' ~ 'Other',</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'HOSPITAL' ~ 'Medical Facility',</v>
+        <v>(chicago_crime$location_description == 'HOSPITAL' ~ 'Medical Facility',</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'HOSPITAL BUILDING / GROUNDS' ~ 'Medical Facility',</v>
+        <v>(chicago_crime$location_description == 'HOSPITAL BUILDING / GROUNDS' ~ 'Medical Facility',</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -10340,7 +10340,7 @@
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'HOSPITAL BUILDING/GROUNDS' ~ 'Medical Facility',</v>
+        <v>(chicago_crime$location_description == 'HOSPITAL BUILDING/GROUNDS' ~ 'Medical Facility',</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'HOTEL' ~ 'Hotel or Motel',</v>
+        <v>(chicago_crime$location_description == 'HOTEL' ~ 'Hotel or Motel',</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'HOTEL / MOTEL' ~ 'Hotel or Motel',</v>
+        <v>(chicago_crime$location_description == 'HOTEL / MOTEL' ~ 'Hotel or Motel',</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'HOTEL/MOTEL' ~ 'Hotel or Motel',</v>
+        <v>(chicago_crime$location_description == 'HOTEL/MOTEL' ~ 'Hotel or Motel',</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'HOUSE' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'HOUSE' ~ 'Residence',</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'JAIL / LOCK-UP FACILITY' ~ 'Jail or Prison',</v>
+        <v>(chicago_crime$location_description == 'JAIL / LOCK-UP FACILITY' ~ 'Jail or Prison',</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'KENNEL' ~ 'Other',</v>
+        <v>(chicago_crime$location_description == 'KENNEL' ~ 'Other',</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'LAKE' ~ 'Recreation Area',</v>
+        <v>(chicago_crime$location_description == 'LAKE' ~ 'Recreation Area',</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'LAKEFRONT / WATERFRONT / RIVERBANK' ~ 'Recreation Area',</v>
+        <v>(chicago_crime$location_description == 'LAKEFRONT / WATERFRONT / RIVERBANK' ~ 'Recreation Area',</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'LAKEFRONT/WATERFRONT/RIVERBANK' ~ 'Recreation Area',</v>
+        <v>(chicago_crime$location_description == 'LAKEFRONT/WATERFRONT/RIVERBANK' ~ 'Recreation Area',</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="F103" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'LIBRARY' ~ 'Government Building or Property',</v>
+        <v>(chicago_crime$location_description == 'LIBRARY' ~ 'Government Building or Property',</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="F104" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'LIQUOR STORE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'LIQUOR STORE' ~ 'Business',</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'MEDICAL / DENTAL OFFICE' ~ 'Medical Facility',</v>
+        <v>(chicago_crime$location_description == 'MEDICAL / DENTAL OFFICE' ~ 'Medical Facility',</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -10587,7 +10587,7 @@
       </c>
       <c r="F106" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'MEDICAL/DENTAL OFFICE' ~ 'Medical Facility',</v>
+        <v>(chicago_crime$location_description == 'MEDICAL/DENTAL OFFICE' ~ 'Medical Facility',</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F107" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'MOTEL' ~ 'Hotel or Motel',</v>
+        <v>(chicago_crime$location_description == 'MOTEL' ~ 'Hotel or Motel',</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="F108" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'MOVIE HOUSE / THEATER' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'MOVIE HOUSE / THEATER' ~ 'Business',</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="F109" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'MOVIE HOUSE/THEATER' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'MOVIE HOUSE/THEATER' ~ 'Business',</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="F110" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'NEWSSTAND' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'NEWSSTAND' ~ 'Business',</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'NURSING / RETIREMENT HOME' ~ 'Medical Facility',</v>
+        <v>(chicago_crime$location_description == 'NURSING / RETIREMENT HOME' ~ 'Medical Facility',</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="F112" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'NURSING HOME' ~ 'Medical Facility',</v>
+        <v>(chicago_crime$location_description == 'NURSING HOME' ~ 'Medical Facility',</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'NURSING HOME/RETIREMENT HOME' ~ 'Medical Facility',</v>
+        <v>(chicago_crime$location_description == 'NURSING HOME/RETIREMENT HOME' ~ 'Medical Facility',</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'OFFICE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'OFFICE' ~ 'Business',</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="F115" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'OTHER (SPECIFY)' ~ 'Other',</v>
+        <v>(chicago_crime$location_description == 'OTHER (SPECIFY)' ~ 'Other',</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'OTHER COMMERCIAL TRANSPORTATION' ~ 'Other Transportation Facility',</v>
+        <v>(chicago_crime$location_description == 'OTHER COMMERCIAL TRANSPORTATION' ~ 'Other Transportation Facility',</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'OTHER RAILROAD PROP / TRAIN DEPOT' ~ 'Other Transportation Facility',</v>
+        <v>(chicago_crime$location_description == 'OTHER RAILROAD PROP / TRAIN DEPOT' ~ 'Other Transportation Facility',</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -10815,7 +10815,7 @@
       </c>
       <c r="F118" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'OTHER RAILROAD PROPERTY / TRAIN DEPOT' ~ 'Other Transportation Facility',</v>
+        <v>(chicago_crime$location_description == 'OTHER RAILROAD PROPERTY / TRAIN DEPOT' ~ 'Other Transportation Facility',</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -10834,7 +10834,7 @@
       </c>
       <c r="F119" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'PARK PROPERTY' ~ 'Recreation Area',</v>
+        <v>(chicago_crime$location_description == 'PARK PROPERTY' ~ 'Recreation Area',</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'PARKING LOT' ~ 'Parking Lot/Garage',</v>
+        <v>(chicago_crime$location_description == 'PARKING LOT' ~ 'Parking Lot/Garage',</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="F121" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'PARKING LOT / GARAGE (NON RESIDENTIAL)' ~ 'Parking Lot/Garage',</v>
+        <v>(chicago_crime$location_description == 'PARKING LOT / GARAGE (NON RESIDENTIAL)' ~ 'Parking Lot/Garage',</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="F122" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'PARKING LOT/GARAGE(NON.RESID.)' ~ 'Parking Lot/Garage',</v>
+        <v>(chicago_crime$location_description == 'PARKING LOT/GARAGE(NON.RESID.)' ~ 'Parking Lot/Garage',</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="F123" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'PAWN SHOP' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'PAWN SHOP' ~ 'Business',</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="F124" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'POLICE FACILITY / VEHICLE PARKING LOT' ~ 'Police Facility',</v>
+        <v>(chicago_crime$location_description == 'POLICE FACILITY / VEHICLE PARKING LOT' ~ 'Police Facility',</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="F125" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'POLICE FACILITY/VEH PARKING LOT' ~ 'Police Facility',</v>
+        <v>(chicago_crime$location_description == 'POLICE FACILITY/VEH PARKING LOT' ~ 'Police Facility',</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'POOL ROOM' ~ 'Recreation Area',</v>
+        <v>(chicago_crime$location_description == 'POOL ROOM' ~ 'Recreation Area',</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="F127" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'PORCH' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'PORCH' ~ 'Residence',</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'RAILROAD PROPERTY' ~ 'Other Transportation Facility',</v>
+        <v>(chicago_crime$location_description == 'RAILROAD PROPERTY' ~ 'Other Transportation Facility',</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="F129" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'RESIDENCE' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'RESIDENCE' ~ 'Residence',</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="F130" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'RESIDENCE - GARAGE' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'RESIDENCE - GARAGE' ~ 'Residence',</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="F131" t="str">
         <f t="shared" si="1"/>
-        <v>case_when(chicago_crime$location_description == 'RESIDENCE - PORCH / HALLWAY' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'RESIDENCE - PORCH / HALLWAY' ~ 'Residence',</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="F132" t="str">
         <f t="shared" ref="F132:F174" si="2">C132&amp;D132&amp;"' ~ '"&amp;E132&amp;"',"</f>
-        <v>case_when(chicago_crime$location_description == 'RESIDENCE - YARD (FRONT / BACK)' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'RESIDENCE - YARD (FRONT / BACK)' ~ 'Residence',</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -11100,7 +11100,7 @@
       </c>
       <c r="F133" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'RESIDENCE PORCH/HALLWAY' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'RESIDENCE PORCH/HALLWAY' ~ 'Residence',</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="F134" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'RESIDENCE-GARAGE' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'RESIDENCE-GARAGE' ~ 'Residence',</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="F135" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'RESIDENTIAL YARD (FRONT/BACK)' ~ 'Residence',</v>
+        <v>(chicago_crime$location_description == 'RESIDENTIAL YARD (FRONT/BACK)' ~ 'Residence',</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="F136" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'RESTAURANT' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'RESTAURANT' ~ 'Business',</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="F137" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'RETAIL STORE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'RETAIL STORE' ~ 'Business',</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="F138" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'RIVER BANK' ~ 'Recreation Area',</v>
+        <v>(chicago_crime$location_description == 'RIVER BANK' ~ 'Recreation Area',</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="F139" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SAVINGS AND LOAN' ~ 'Bank',</v>
+        <v>(chicago_crime$location_description == 'SAVINGS AND LOAN' ~ 'Bank',</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="F140" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SCHOOL - PRIVATE BUILDING' ~ 'School',</v>
+        <v>(chicago_crime$location_description == 'SCHOOL - PRIVATE BUILDING' ~ 'School',</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="F141" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SCHOOL - PRIVATE GROUNDS' ~ 'School',</v>
+        <v>(chicago_crime$location_description == 'SCHOOL - PRIVATE GROUNDS' ~ 'School',</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="F142" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SCHOOL - PUBLIC BUILDING' ~ 'School',</v>
+        <v>(chicago_crime$location_description == 'SCHOOL - PUBLIC BUILDING' ~ 'School',</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -11290,7 +11290,7 @@
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SCHOOL - PUBLIC GROUNDS' ~ 'School',</v>
+        <v>(chicago_crime$location_description == 'SCHOOL - PUBLIC GROUNDS' ~ 'School',</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="F144" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SCHOOL YARD' ~ 'School',</v>
+        <v>(chicago_crime$location_description == 'SCHOOL YARD' ~ 'School',</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="F145" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SCHOOL, PRIVATE, BUILDING' ~ 'School',</v>
+        <v>(chicago_crime$location_description == 'SCHOOL, PRIVATE, BUILDING' ~ 'School',</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="F146" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SCHOOL, PRIVATE, GROUNDS' ~ 'School',</v>
+        <v>(chicago_crime$location_description == 'SCHOOL, PRIVATE, GROUNDS' ~ 'School',</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="F147" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SCHOOL, PUBLIC, BUILDING' ~ 'School',</v>
+        <v>(chicago_crime$location_description == 'SCHOOL, PUBLIC, BUILDING' ~ 'School',</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SCHOOL, PUBLIC, GROUNDS' ~ 'School',</v>
+        <v>(chicago_crime$location_description == 'SCHOOL, PUBLIC, GROUNDS' ~ 'School',</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SMALL RETAIL STORE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'SMALL RETAIL STORE' ~ 'Business',</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SPORTS ARENA / STADIUM' ~ 'Sports Facility',</v>
+        <v>(chicago_crime$location_description == 'SPORTS ARENA / STADIUM' ~ 'Sports Facility',</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -11442,7 +11442,7 @@
       </c>
       <c r="F151" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'SPORTS ARENA/STADIUM' ~ 'Sports Facility',</v>
+        <v>(chicago_crime$location_description == 'SPORTS ARENA/STADIUM' ~ 'Sports Facility',</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'STAIRWELL' ~ 'Other',</v>
+        <v>(chicago_crime$location_description == 'STAIRWELL' ~ 'Other',</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="F153" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'STREET' ~ 'Street or Highway',</v>
+        <v>(chicago_crime$location_description == 'STREET' ~ 'Street or Highway',</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'TAVERN' ~ 'Bar, Tavern or Club',</v>
+        <v>(chicago_crime$location_description == 'TAVERN' ~ 'Bar, Tavern or Club',</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -11518,7 +11518,7 @@
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'TAVERN / LIQUOR STORE' ~ 'Bar, Tavern or Club',</v>
+        <v>(chicago_crime$location_description == 'TAVERN / LIQUOR STORE' ~ 'Bar, Tavern or Club',</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'TAVERN/LIQUOR STORE' ~ 'Bar, Tavern or Club',</v>
+        <v>(chicago_crime$location_description == 'TAVERN/LIQUOR STORE' ~ 'Bar, Tavern or Club',</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="F157" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'TAXICAB' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'TAXICAB' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'TRAILER' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'TRAILER' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="F159" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'TRUCK' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'TRUCK' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F160" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VACANT LOT / LAND' ~ 'Vacant Lot',</v>
+        <v>(chicago_crime$location_description == 'VACANT LOT / LAND' ~ 'Vacant Lot',</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -11632,7 +11632,7 @@
       </c>
       <c r="F161" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VACANT LOT/LAND' ~ 'Vacant Lot',</v>
+        <v>(chicago_crime$location_description == 'VACANT LOT/LAND' ~ 'Vacant Lot',</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="F162" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VEHICLE - COMMERCIAL' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'VEHICLE - COMMERCIAL' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="F163" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VEHICLE - COMMERCIAL: ENTERTAINMENT / PARTY BUS' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'VEHICLE - COMMERCIAL: ENTERTAINMENT / PARTY BUS' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="F164" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VEHICLE - COMMERCIAL: TROLLEY BUS' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'VEHICLE - COMMERCIAL: TROLLEY BUS' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="F165" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VEHICLE - DELIVERY TRUCK' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'VEHICLE - DELIVERY TRUCK' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -11727,7 +11727,7 @@
       </c>
       <c r="F166" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VEHICLE - OTHER RIDE SHARE SERVICE (E.G., UBER, LYFT)' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'VEHICLE - OTHER RIDE SHARE SERVICE (E.G., UBER, LYFT)' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -11746,7 +11746,7 @@
       </c>
       <c r="F167" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VEHICLE - OTHER RIDE SHARE SERVICE (LYFT, UBER, ETC.)' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'VEHICLE - OTHER RIDE SHARE SERVICE (LYFT, UBER, ETC.)' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -11765,7 +11765,7 @@
       </c>
       <c r="F168" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VEHICLE NON-COMMERCIAL' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'VEHICLE NON-COMMERCIAL' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -11784,7 +11784,7 @@
       </c>
       <c r="F169" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VEHICLE-COMMERCIAL' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'VEHICLE-COMMERCIAL' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -11803,7 +11803,7 @@
       </c>
       <c r="F170" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VEHICLE-COMMERCIAL - ENTERTAINMENT/PARTY BUS' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'VEHICLE-COMMERCIAL - ENTERTAINMENT/PARTY BUS' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -11822,7 +11822,7 @@
       </c>
       <c r="F171" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VEHICLE-COMMERCIAL - TROLLEY BUS' ~ 'Vehicle',</v>
+        <v>(chicago_crime$location_description == 'VEHICLE-COMMERCIAL - TROLLEY BUS' ~ 'Vehicle',</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="F172" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'VESTIBULE' ~ 'Other',</v>
+        <v>(chicago_crime$location_description == 'VESTIBULE' ~ 'Other',</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -11860,7 +11860,7 @@
       </c>
       <c r="F173" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'WAREHOUSE' ~ 'Business',</v>
+        <v>(chicago_crime$location_description == 'WAREHOUSE' ~ 'Business',</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="F174" t="str">
         <f t="shared" si="2"/>
-        <v>case_when(chicago_crime$location_description == 'NA' ~ 'Other',</v>
+        <v>(chicago_crime$location_description == 'NA' ~ 'Other',</v>
       </c>
     </row>
   </sheetData>
